--- a/database/anexo b.xlsx
+++ b/database/anexo b.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/bb5bd7a50d11ebd7/Área de Trabalho/Programa PYQT6/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Guilherme\Documents\Licitacao360\pyqt6\database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="110" documentId="8_{4F0647EC-2228-4685-9A2A-7A40CD350DC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B5098D6C-928B-44D0-BF9A-263E3471FF31}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8A78153-FBF7-4BBE-A229-0781C6EBA440}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38290" yWindow="-110" windowWidth="38620" windowHeight="21100" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="4. Especificação" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="179">
   <si>
     <t>item_num</t>
   </si>
@@ -640,17 +640,2647 @@
   <si>
     <t>Ar-Condicionado 12.000 Btu (Instalação Inclusa) (Cota Reservada ME-EPP)</t>
   </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Televisor
+Características Adicionais: 4k, 3d E Smart Tv, Mínimo: 2 Usb, 3 Hdmi, Wi-Fi In
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Carlito;Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Tamanho Tela: 75 POL
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Tipo Tela: Led
+Voltagem: 110/221</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Televisor
+Características Adicionais: 4k, 3d E Smart Tv, Mínimo: 2 Usb, 3 Hdmi, Wi-Fi In
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Carlito;Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Tamanho Tela: 75 POL
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Tipo Tela: Led
+Voltagem: 110/222</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Televisor
+Características Adicionais: 4k, 3d E Smart Tv, Mínimo: 2 Usb, 3 Hdmi, Wi-Fi In
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Carlito;Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Tamanho Tela: 75 POL
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Tipo Tela: Led
+Voltagem: 110/223</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Televisor
+Características Adicionais: 4k, 3d E Smart Tv, Mínimo: 2 Usb, 3 Hdmi, Wi-Fi In
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Carlito;Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Tamanho Tela: 75 POL
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Tipo Tela: Led
+Voltagem: 110/224</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Televisor
+Características Adicionais: 4k, 3d E Smart Tv, Mínimo: 2 Usb, 3 Hdmi, Wi-Fi In
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Carlito;Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Tamanho Tela: 75 POL
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Tipo Tela: Led
+Voltagem: 110/225</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Televisor
+Características Adicionais: 4k, 3d E Smart Tv, Mínimo: 2 Usb, 3 Hdmi, Wi-Fi In
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Carlito;Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Tamanho Tela: 75 POL
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Tipo Tela: Led
+Voltagem: 110/226</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Televisor
+Características Adicionais: 4k, 3d E Smart Tv, Mínimo: 2 Usb, 3 Hdmi, Wi-Fi In
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Carlito;Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Tamanho Tela: 75 POL
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Tipo Tela: Led
+Voltagem: 110/227</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Televisor
+Características Adicionais: 4k, 3d E Smart Tv, Mínimo: 2 Usb, 3 Hdmi, Wi-Fi In
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Carlito;Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Tamanho Tela: 75 POL
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Tipo Tela: Led
+Voltagem: 110/228</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Televisor
+Características Adicionais: 4k, 3d E Smart Tv, Mínimo: 2 Usb, 3 Hdmi, Wi-Fi In
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Carlito;Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Tamanho Tela: 75 POL
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Tipo Tela: Led
+Voltagem: 110/229</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Televisor
+Características Adicionais: 4k, 3d E Smart Tv, Mínimo: 2 Usb, 3 Hdmi, Wi-Fi In
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Carlito;Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Tamanho Tela: 75 POL
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Tipo Tela: Led
+Voltagem: 110/230</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Televisor
+Características Adicionais: 4k, 3d E Smart Tv, Mínimo: 2 Usb, 3 Hdmi, Wi-Fi In
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Carlito;Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Tamanho Tela: 75 POL
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Tipo Tela: Led
+Voltagem: 110/231</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Televisor
+Características Adicionais: 4k, 3d E Smart Tv, Mínimo: 2 Usb, 3 Hdmi, Wi-Fi In
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Carlito;Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Tamanho Tela: 75 POL
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Tipo Tela: Led
+Voltagem: 110/232</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Televisor
+Características Adicionais: 4k, 3d E Smart Tv, Mínimo: 2 Usb, 3 Hdmi, Wi-Fi In
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Carlito;Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Tamanho Tela: 75 POL
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Tipo Tela: Led
+Voltagem: 110/233</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Televisor
+Características Adicionais: 4k, 3d E Smart Tv, Mínimo: 2 Usb, 3 Hdmi, Wi-Fi In
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Carlito;Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Tamanho Tela: 75 POL
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Tipo Tela: Led
+Voltagem: 110/234</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Televisor
+Características Adicionais: 4k, 3d E Smart Tv, Mínimo: 2 Usb, 3 Hdmi, Wi-Fi In
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Carlito;Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Tamanho Tela: 75 POL
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Tipo Tela: Led
+Voltagem: 110/235</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Televisor
+Características Adicionais: 4k, 3d E Smart Tv, Mínimo: 2 Usb, 3 Hdmi, Wi-Fi In
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Carlito;Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Tamanho Tela: 75 POL
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Tipo Tela: Led
+Voltagem: 110/236</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Televisor
+Características Adicionais: 4k, 3d E Smart Tv, Mínimo: 2 Usb, 3 Hdmi, Wi-Fi In
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Carlito;Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Tamanho Tela: 75 POL
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Tipo Tela: Led
+Voltagem: 110/237</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Televisor
+Características Adicionais: 4k, 3d E Smart Tv, Mínimo: 2 Usb, 3 Hdmi, Wi-Fi In
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Carlito;Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Tamanho Tela: 75 POL
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Tipo Tela: Led
+Voltagem: 110/238</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Televisor
+Características Adicionais: 4k, 3d E Smart Tv, Mínimo: 2 Usb, 3 Hdmi, Wi-Fi In
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Carlito;Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Tamanho Tela: 75 POL
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Tipo Tela: Led
+Voltagem: 110/239</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Televisor
+Características Adicionais: 4k, 3d E Smart Tv, Mínimo: 2 Usb, 3 Hdmi, Wi-Fi In
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Carlito;Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Tamanho Tela: 75 POL
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Tipo Tela: Led
+Voltagem: 110/240</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Televisor
+Características Adicionais: 4k, 3d E Smart Tv, Mínimo: 2 Usb, 3 Hdmi, Wi-Fi In
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Carlito;Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Tamanho Tela: 75 POL
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Tipo Tela: Led
+Voltagem: 110/241</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Televisor
+Características Adicionais: 4k, 3d E Smart Tv, Mínimo: 2 Usb, 3 Hdmi, Wi-Fi In
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Carlito;Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Tamanho Tela: 75 POL
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Tipo Tela: Led
+Voltagem: 110/242</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Televisor
+Características Adicionais: 4k, 3d E Smart Tv, Mínimo: 2 Usb, 3 Hdmi, Wi-Fi In
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Carlito;Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Tamanho Tela: 75 POL
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Tipo Tela: Led
+Voltagem: 110/243</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Televisor
+Características Adicionais: 4k, 3d E Smart Tv, Mínimo: 2 Usb, 3 Hdmi, Wi-Fi In
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Carlito;Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Tamanho Tela: 75 POL
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Tipo Tela: Led
+Voltagem: 110/244</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Televisor
+Características Adicionais: 4k, 3d E Smart Tv, Mínimo: 2 Usb, 3 Hdmi, Wi-Fi In
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Carlito;Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Tamanho Tela: 75 POL
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Tipo Tela: Led
+Voltagem: 110/245</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Televisor
+Características Adicionais: 4k, 3d E Smart Tv, Mínimo: 2 Usb, 3 Hdmi, Wi-Fi In
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Carlito;Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Tamanho Tela: 75 POL
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Tipo Tela: Led
+Voltagem: 110/246</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Televisor
+Características Adicionais: 4k, 3d E Smart Tv, Mínimo: 2 Usb, 3 Hdmi, Wi-Fi In
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Carlito;Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Tamanho Tela: 75 POL
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Tipo Tela: Led
+Voltagem: 110/247</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Televisor
+Características Adicionais: 4k, 3d E Smart Tv, Mínimo: 2 Usb, 3 Hdmi, Wi-Fi In
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Carlito;Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Tamanho Tela: 75 POL
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Tipo Tela: Led
+Voltagem: 110/248</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Televisor
+Características Adicionais: 4k, 3d E Smart Tv, Mínimo: 2 Usb, 3 Hdmi, Wi-Fi In
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Carlito;Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Tamanho Tela: 75 POL
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Tipo Tela: Led
+Voltagem: 110/249</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Televisor
+Características Adicionais: 4k, 3d E Smart Tv, Mínimo: 2 Usb, 3 Hdmi, Wi-Fi In
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Carlito;Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Tamanho Tela: 75 POL
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Tipo Tela: Led
+Voltagem: 110/250</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Televisor
+Características Adicionais: 4k, 3d E Smart Tv, Mínimo: 2 Usb, 3 Hdmi, Wi-Fi In
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Carlito;Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Tamanho Tela: 75 POL
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Tipo Tela: Led
+Voltagem: 110/251</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Televisor
+Características Adicionais: 4k, 3d E Smart Tv, Mínimo: 2 Usb, 3 Hdmi, Wi-Fi In
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Carlito;Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Tamanho Tela: 75 POL
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Tipo Tela: Led
+Voltagem: 110/252</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Televisor
+Características Adicionais: 4k, 3d E Smart Tv, Mínimo: 2 Usb, 3 Hdmi, Wi-Fi In
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Carlito;Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Tamanho Tela: 75 POL
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Tipo Tela: Led
+Voltagem: 110/253</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Televisor
+Características Adicionais: 4k, 3d E Smart Tv, Mínimo: 2 Usb, 3 Hdmi, Wi-Fi In
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Carlito;Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Tamanho Tela: 75 POL
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Tipo Tela: Led
+Voltagem: 110/254</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Televisor
+Características Adicionais: 4k, 3d E Smart Tv, Mínimo: 2 Usb, 3 Hdmi, Wi-Fi In
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Carlito;Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Tamanho Tela: 75 POL
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Tipo Tela: Led
+Voltagem: 110/255</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Televisor
+Características Adicionais: 4k, 3d E Smart Tv, Mínimo: 2 Usb, 3 Hdmi, Wi-Fi In
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Carlito;Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Tamanho Tela: 75 POL
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Tipo Tela: Led
+Voltagem: 110/256</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Televisor
+Características Adicionais: 4k, 3d E Smart Tv, Mínimo: 2 Usb, 3 Hdmi, Wi-Fi In
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Carlito;Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Tamanho Tela: 75 POL
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Tipo Tela: Led
+Voltagem: 110/257</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Televisor
+Características Adicionais: 4k, 3d E Smart Tv, Mínimo: 2 Usb, 3 Hdmi, Wi-Fi In
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Carlito;Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Tamanho Tela: 75 POL
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Tipo Tela: Led
+Voltagem: 110/258</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Televisor
+Características Adicionais: 4k, 3d E Smart Tv, Mínimo: 2 Usb, 3 Hdmi, Wi-Fi In
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Carlito;Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Tamanho Tela: 75 POL
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Tipo Tela: Led
+Voltagem: 110/259</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Televisor
+Características Adicionais: 4k, 3d E Smart Tv, Mínimo: 2 Usb, 3 Hdmi, Wi-Fi In
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Carlito;Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Tamanho Tela: 75 POL
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Tipo Tela: Led
+Voltagem: 110/260</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Televisor
+Características Adicionais: 4k, 3d E Smart Tv, Mínimo: 2 Usb, 3 Hdmi, Wi-Fi In
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Carlito;Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Tamanho Tela: 75 POL
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Tipo Tela: Led
+Voltagem: 110/261</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Televisor
+Características Adicionais: 4k, 3d E Smart Tv, Mínimo: 2 Usb, 3 Hdmi, Wi-Fi In
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Carlito;Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Tamanho Tela: 75 POL
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Tipo Tela: Led
+Voltagem: 110/262</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Televisor
+Características Adicionais: 4k, 3d E Smart Tv, Mínimo: 2 Usb, 3 Hdmi, Wi-Fi In
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Carlito;Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Tamanho Tela: 75 POL
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Tipo Tela: Led
+Voltagem: 110/263</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Televisor
+Características Adicionais: 4k, 3d E Smart Tv, Mínimo: 2 Usb, 3 Hdmi, Wi-Fi In
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Carlito;Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Tamanho Tela: 75 POL
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Tipo Tela: Led
+Voltagem: 110/264</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Televisor
+Características Adicionais: 4k, 3d E Smart Tv, Mínimo: 2 Usb, 3 Hdmi, Wi-Fi In
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Carlito;Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Tamanho Tela: 75 POL
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Tipo Tela: Led
+Voltagem: 110/265</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Televisor
+Características Adicionais: 4k, 3d E Smart Tv, Mínimo: 2 Usb, 3 Hdmi, Wi-Fi In
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Carlito;Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Tamanho Tela: 75 POL
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Tipo Tela: Led
+Voltagem: 110/266</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Televisor
+Características Adicionais: 4k, 3d E Smart Tv, Mínimo: 2 Usb, 3 Hdmi, Wi-Fi In
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Carlito;Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Tamanho Tela: 75 POL
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Tipo Tela: Led
+Voltagem: 110/267</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Televisor
+Características Adicionais: 4k, 3d E Smart Tv, Mínimo: 2 Usb, 3 Hdmi, Wi-Fi In
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Carlito;Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Tamanho Tela: 75 POL
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Tipo Tela: Led
+Voltagem: 110/268</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Televisor
+Características Adicionais: 4k, 3d E Smart Tv, Mínimo: 2 Usb, 3 Hdmi, Wi-Fi In
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Carlito;Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Tamanho Tela: 75 POL
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Tipo Tela: Led
+Voltagem: 110/269</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Televisor
+Características Adicionais: 4k, 3d E Smart Tv, Mínimo: 2 Usb, 3 Hdmi, Wi-Fi In
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Carlito;Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Tamanho Tela: 75 POL
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Tipo Tela: Led
+Voltagem: 110/270</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Televisor
+Características Adicionais: 4k, 3d E Smart Tv, Mínimo: 2 Usb, 3 Hdmi, Wi-Fi In
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Carlito;Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Tamanho Tela: 75 POL
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Tipo Tela: Led
+Voltagem: 110/271</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Televisor
+Características Adicionais: 4k, 3d E Smart Tv, Mínimo: 2 Usb, 3 Hdmi, Wi-Fi In
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Carlito;Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Tamanho Tela: 75 POL
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Tipo Tela: Led
+Voltagem: 110/272</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Televisor
+Características Adicionais: 4k, 3d E Smart Tv, Mínimo: 2 Usb, 3 Hdmi, Wi-Fi In
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Carlito;Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Tamanho Tela: 75 POL
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Tipo Tela: Led
+Voltagem: 110/273</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Televisor
+Características Adicionais: 4k, 3d E Smart Tv, Mínimo: 2 Usb, 3 Hdmi, Wi-Fi In
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Carlito;Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Tamanho Tela: 75 POL
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Tipo Tela: Led
+Voltagem: 110/274</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Televisor
+Características Adicionais: 4k, 3d E Smart Tv, Mínimo: 2 Usb, 3 Hdmi, Wi-Fi In
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Carlito;Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Tamanho Tela: 75 POL
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Tipo Tela: Led
+Voltagem: 110/275</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Televisor
+Características Adicionais: 4k, 3d E Smart Tv, Mínimo: 2 Usb, 3 Hdmi, Wi-Fi In
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Carlito;Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Tamanho Tela: 75 POL
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Tipo Tela: Led
+Voltagem: 110/276</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Televisor
+Características Adicionais: 4k, 3d E Smart Tv, Mínimo: 2 Usb, 3 Hdmi, Wi-Fi In
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Carlito;Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Tamanho Tela: 75 POL
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Tipo Tela: Led
+Voltagem: 110/277</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Televisor
+Características Adicionais: 4k, 3d E Smart Tv, Mínimo: 2 Usb, 3 Hdmi, Wi-Fi In
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Carlito;Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Tamanho Tela: 75 POL
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Tipo Tela: Led
+Voltagem: 110/278</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Televisor
+Características Adicionais: 4k, 3d E Smart Tv, Mínimo: 2 Usb, 3 Hdmi, Wi-Fi In
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Carlito;Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Tamanho Tela: 75 POL
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Tipo Tela: Led
+Voltagem: 110/279</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Televisor
+Características Adicionais: 4k, 3d E Smart Tv, Mínimo: 2 Usb, 3 Hdmi, Wi-Fi In
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Carlito;Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Tamanho Tela: 75 POL
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Tipo Tela: Led
+Voltagem: 110/280</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Televisor
+Características Adicionais: 4k, 3d E Smart Tv, Mínimo: 2 Usb, 3 Hdmi, Wi-Fi In
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Carlito;Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Tamanho Tela: 75 POL
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Tipo Tela: Led
+Voltagem: 110/281</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
@@ -681,6 +3311,11 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Carlito;Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -753,22 +3388,22 @@
   </cellStyleXfs>
   <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -903,10 +3538,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AME70"/>
+  <dimension ref="A1:AME131"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" topLeftCell="A103" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A69" sqref="A69:A131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.54296875" defaultRowHeight="15.5"/>
@@ -1899,8 +4534,863 @@
         <v>90</v>
       </c>
     </row>
+    <row r="71" spans="1:4">
+      <c r="A71" s="5">
+        <v>70</v>
+      </c>
+      <c r="B71" s="6">
+        <v>439607</v>
+      </c>
+      <c r="C71" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="D71" s="8" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
+      <c r="A72" s="5">
+        <v>71</v>
+      </c>
+      <c r="B72" s="6">
+        <v>439607</v>
+      </c>
+      <c r="C72" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="D72" s="8" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
+      <c r="A73" s="5">
+        <v>72</v>
+      </c>
+      <c r="B73" s="6">
+        <v>439607</v>
+      </c>
+      <c r="C73" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="D73" s="8" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
+      <c r="A74" s="5">
+        <v>73</v>
+      </c>
+      <c r="B74" s="6">
+        <v>439607</v>
+      </c>
+      <c r="C74" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="D74" s="8" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
+      <c r="A75" s="5">
+        <v>74</v>
+      </c>
+      <c r="B75" s="6">
+        <v>439607</v>
+      </c>
+      <c r="C75" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="D75" s="8" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
+      <c r="A76" s="5">
+        <v>75</v>
+      </c>
+      <c r="B76" s="6">
+        <v>439607</v>
+      </c>
+      <c r="C76" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="D76" s="8" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
+      <c r="A77" s="5">
+        <v>76</v>
+      </c>
+      <c r="B77" s="6">
+        <v>439607</v>
+      </c>
+      <c r="C77" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="D77" s="8" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
+      <c r="A78" s="5">
+        <v>77</v>
+      </c>
+      <c r="B78" s="6">
+        <v>439607</v>
+      </c>
+      <c r="C78" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="D78" s="8" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
+      <c r="A79" s="5">
+        <v>78</v>
+      </c>
+      <c r="B79" s="6">
+        <v>439607</v>
+      </c>
+      <c r="C79" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="D79" s="8" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
+      <c r="A80" s="5">
+        <v>79</v>
+      </c>
+      <c r="B80" s="6">
+        <v>439607</v>
+      </c>
+      <c r="C80" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="D80" s="8" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
+      <c r="A81" s="5">
+        <v>80</v>
+      </c>
+      <c r="B81" s="6">
+        <v>439607</v>
+      </c>
+      <c r="C81" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="D81" s="8" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
+      <c r="A82" s="5">
+        <v>81</v>
+      </c>
+      <c r="B82" s="6">
+        <v>439607</v>
+      </c>
+      <c r="C82" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="D82" s="8" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
+      <c r="A83" s="5">
+        <v>82</v>
+      </c>
+      <c r="B83" s="6">
+        <v>439607</v>
+      </c>
+      <c r="C83" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="D83" s="8" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
+      <c r="A84" s="5">
+        <v>83</v>
+      </c>
+      <c r="B84" s="6">
+        <v>439607</v>
+      </c>
+      <c r="C84" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="D84" s="8" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
+      <c r="A85" s="5">
+        <v>84</v>
+      </c>
+      <c r="B85" s="6">
+        <v>439607</v>
+      </c>
+      <c r="C85" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="D85" s="8" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
+      <c r="A86" s="5">
+        <v>85</v>
+      </c>
+      <c r="B86" s="6">
+        <v>439607</v>
+      </c>
+      <c r="C86" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="D86" s="8" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
+      <c r="A87" s="5">
+        <v>86</v>
+      </c>
+      <c r="B87" s="6">
+        <v>439607</v>
+      </c>
+      <c r="C87" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="D87" s="8" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
+      <c r="A88" s="5">
+        <v>87</v>
+      </c>
+      <c r="B88" s="6">
+        <v>439607</v>
+      </c>
+      <c r="C88" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="D88" s="8" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
+      <c r="A89" s="5">
+        <v>88</v>
+      </c>
+      <c r="B89" s="6">
+        <v>439607</v>
+      </c>
+      <c r="C89" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="D89" s="8" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
+      <c r="A90" s="5">
+        <v>89</v>
+      </c>
+      <c r="B90" s="6">
+        <v>439607</v>
+      </c>
+      <c r="C90" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="D90" s="8" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
+      <c r="A91" s="5">
+        <v>90</v>
+      </c>
+      <c r="B91" s="6">
+        <v>439607</v>
+      </c>
+      <c r="C91" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="D91" s="8" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
+      <c r="A92" s="5">
+        <v>91</v>
+      </c>
+      <c r="B92" s="6">
+        <v>439607</v>
+      </c>
+      <c r="C92" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="D92" s="8" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
+      <c r="A93" s="5">
+        <v>92</v>
+      </c>
+      <c r="B93" s="6">
+        <v>439607</v>
+      </c>
+      <c r="C93" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="D93" s="8" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
+      <c r="A94" s="5">
+        <v>93</v>
+      </c>
+      <c r="B94" s="6">
+        <v>439607</v>
+      </c>
+      <c r="C94" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="D94" s="8" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
+      <c r="A95" s="5">
+        <v>94</v>
+      </c>
+      <c r="B95" s="6">
+        <v>439607</v>
+      </c>
+      <c r="C95" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="D95" s="8" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
+      <c r="A96" s="5">
+        <v>95</v>
+      </c>
+      <c r="B96" s="6">
+        <v>439607</v>
+      </c>
+      <c r="C96" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="D96" s="8" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
+      <c r="A97" s="5">
+        <v>96</v>
+      </c>
+      <c r="B97" s="6">
+        <v>439607</v>
+      </c>
+      <c r="C97" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="D97" s="8" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
+      <c r="A98" s="5">
+        <v>97</v>
+      </c>
+      <c r="B98" s="6">
+        <v>439607</v>
+      </c>
+      <c r="C98" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="D98" s="8" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
+      <c r="A99" s="5">
+        <v>98</v>
+      </c>
+      <c r="B99" s="6">
+        <v>439607</v>
+      </c>
+      <c r="C99" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="D99" s="8" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
+      <c r="A100" s="5">
+        <v>99</v>
+      </c>
+      <c r="B100" s="6">
+        <v>439607</v>
+      </c>
+      <c r="C100" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="D100" s="8" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
+      <c r="A101" s="5">
+        <v>100</v>
+      </c>
+      <c r="B101" s="6">
+        <v>439607</v>
+      </c>
+      <c r="C101" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="D101" s="8" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
+      <c r="A102" s="5">
+        <v>101</v>
+      </c>
+      <c r="B102" s="6">
+        <v>439607</v>
+      </c>
+      <c r="C102" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="D102" s="8" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
+      <c r="A103" s="5">
+        <v>102</v>
+      </c>
+      <c r="B103" s="6">
+        <v>439607</v>
+      </c>
+      <c r="C103" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="D103" s="8" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
+      <c r="A104" s="5">
+        <v>103</v>
+      </c>
+      <c r="B104" s="6">
+        <v>439607</v>
+      </c>
+      <c r="C104" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="D104" s="8" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4">
+      <c r="A105" s="5">
+        <v>104</v>
+      </c>
+      <c r="B105" s="6">
+        <v>439607</v>
+      </c>
+      <c r="C105" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="D105" s="8" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4">
+      <c r="A106" s="5">
+        <v>105</v>
+      </c>
+      <c r="B106" s="6">
+        <v>439607</v>
+      </c>
+      <c r="C106" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="D106" s="8" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4">
+      <c r="A107" s="5">
+        <v>106</v>
+      </c>
+      <c r="B107" s="6">
+        <v>439607</v>
+      </c>
+      <c r="C107" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="D107" s="8" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4">
+      <c r="A108" s="5">
+        <v>107</v>
+      </c>
+      <c r="B108" s="6">
+        <v>439607</v>
+      </c>
+      <c r="C108" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="D108" s="8" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4">
+      <c r="A109" s="5">
+        <v>108</v>
+      </c>
+      <c r="B109" s="6">
+        <v>439607</v>
+      </c>
+      <c r="C109" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="D109" s="8" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4">
+      <c r="A110" s="5">
+        <v>109</v>
+      </c>
+      <c r="B110" s="6">
+        <v>439607</v>
+      </c>
+      <c r="C110" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="D110" s="8" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4">
+      <c r="A111" s="5">
+        <v>110</v>
+      </c>
+      <c r="B111" s="6">
+        <v>439607</v>
+      </c>
+      <c r="C111" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="D111" s="8" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4">
+      <c r="A112" s="5">
+        <v>111</v>
+      </c>
+      <c r="B112" s="6">
+        <v>439607</v>
+      </c>
+      <c r="C112" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="D112" s="8" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4">
+      <c r="A113" s="5">
+        <v>112</v>
+      </c>
+      <c r="B113" s="6">
+        <v>439607</v>
+      </c>
+      <c r="C113" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="D113" s="8" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4">
+      <c r="A114" s="5">
+        <v>113</v>
+      </c>
+      <c r="B114" s="6">
+        <v>439607</v>
+      </c>
+      <c r="C114" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="D114" s="8" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4">
+      <c r="A115" s="5">
+        <v>114</v>
+      </c>
+      <c r="B115" s="6">
+        <v>439607</v>
+      </c>
+      <c r="C115" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="D115" s="8" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4">
+      <c r="A116" s="5">
+        <v>115</v>
+      </c>
+      <c r="B116" s="6">
+        <v>439607</v>
+      </c>
+      <c r="C116" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="D116" s="8" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4">
+      <c r="A117" s="5">
+        <v>116</v>
+      </c>
+      <c r="B117" s="6">
+        <v>439607</v>
+      </c>
+      <c r="C117" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="D117" s="8" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4">
+      <c r="A118" s="5">
+        <v>117</v>
+      </c>
+      <c r="B118" s="6">
+        <v>439607</v>
+      </c>
+      <c r="C118" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="D118" s="8" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4">
+      <c r="A119" s="5">
+        <v>118</v>
+      </c>
+      <c r="B119" s="6">
+        <v>439607</v>
+      </c>
+      <c r="C119" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="D119" s="8" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4">
+      <c r="A120" s="5">
+        <v>119</v>
+      </c>
+      <c r="B120" s="6">
+        <v>439607</v>
+      </c>
+      <c r="C120" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="D120" s="8" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4">
+      <c r="A121" s="5">
+        <v>120</v>
+      </c>
+      <c r="B121" s="6">
+        <v>439607</v>
+      </c>
+      <c r="C121" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="D121" s="8" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4">
+      <c r="A122" s="5">
+        <v>121</v>
+      </c>
+      <c r="B122" s="6">
+        <v>439607</v>
+      </c>
+      <c r="C122" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="D122" s="8" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4">
+      <c r="A123" s="5">
+        <v>122</v>
+      </c>
+      <c r="B123" s="6">
+        <v>439607</v>
+      </c>
+      <c r="C123" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="D123" s="8" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4">
+      <c r="A124" s="5">
+        <v>123</v>
+      </c>
+      <c r="B124" s="6">
+        <v>439607</v>
+      </c>
+      <c r="C124" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="D124" s="8" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4">
+      <c r="A125" s="5">
+        <v>124</v>
+      </c>
+      <c r="B125" s="6">
+        <v>439607</v>
+      </c>
+      <c r="C125" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="D125" s="8" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4">
+      <c r="A126" s="5">
+        <v>125</v>
+      </c>
+      <c r="B126" s="6">
+        <v>439607</v>
+      </c>
+      <c r="C126" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="D126" s="8" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4">
+      <c r="A127" s="5">
+        <v>126</v>
+      </c>
+      <c r="B127" s="6">
+        <v>439607</v>
+      </c>
+      <c r="C127" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="D127" s="8" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4">
+      <c r="A128" s="5">
+        <v>127</v>
+      </c>
+      <c r="B128" s="6">
+        <v>439607</v>
+      </c>
+      <c r="C128" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="D128" s="8" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4">
+      <c r="A129" s="5">
+        <v>128</v>
+      </c>
+      <c r="B129" s="6">
+        <v>439607</v>
+      </c>
+      <c r="C129" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="D129" s="8" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4">
+      <c r="A130" s="5">
+        <v>129</v>
+      </c>
+      <c r="B130" s="6">
+        <v>439607</v>
+      </c>
+      <c r="C130" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="D130" s="8" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4">
+      <c r="A131" s="5">
+        <v>130</v>
+      </c>
+      <c r="B131" s="6">
+        <v>439607</v>
+      </c>
+      <c r="C131" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="D131" s="8" t="s">
+        <v>178</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:C70" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.51180555555555596" right="0.51180555555555596" top="0.78749999999999998" bottom="0.78749999999999998" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>

--- a/database/anexo b.xlsx
+++ b/database/anexo b.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Guilherme\Documents\Licitacao360\pyqt6\database\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\guilh\OneDrive\Documentos\Licitacao360\pyqt6\database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8A78153-FBF7-4BBE-A229-0781C6EBA440}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{514FCDB4-63B0-4AC2-9768-DF3C017A4303}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38290" yWindow="-110" windowWidth="38620" windowHeight="21100" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="4. Especificação" sheetId="1" r:id="rId1"/>
@@ -237,40 +237,6 @@
     <t>Máquina De Gelo</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Máquina de gelo em cubas 100kg/dia, 220v.
-Capacidade do reservatório: 40kg ou maior
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Carlito;Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Peso do gelo: aproximadamente 6g / </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Tipo de gelo: cubos / Material: aço inox
-Potência: 270w / Dimensão aproximada do produto ( l x p x a): 67 x 66 x 120cm
-Peso produto: 77kg
-(Referência SRM-105A ou de qualidade equivalente) </t>
-    </r>
-  </si>
-  <si>
     <t>Cortador De Frios</t>
   </si>
   <si>
@@ -294,30 +260,6 @@
   </si>
   <si>
     <t>Serra Fita Para Ossos</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Serra fita  - estrutura em aço inox 430
-Sistema de segurança eletrônico que impede o contato com a lâmina de corte enquanto a máquina estiver em uso / Características Modelo: 
-Comprimento da Lâmina: 2.820mm / Largura do Corte: 315mm
-Altura do Corte: 285mm / Voltagem: 220V / Potência: 2,0 CV
-(Referência </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Carlito;Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>SL-282 ou de qualidade equivalente)</t>
-    </r>
   </si>
   <si>
     <t>Balança Elétrica</t>
@@ -527,13 +469,134 @@
     <t>Televisor 75”</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
+    <t>Aparelho Ar Condicionado Capacidade Refrigeração: 12.000 BTU Modelo: Fancolete Hidrônico Características Adicionais 1: Controle Remoto S/Fio, Inverter, Tipo: Split Hi Wall / Tensão: 220, (instalação inclusa)</t>
+  </si>
+  <si>
+    <t>Televisor 50” (Cota Reservada ME-EPP)</t>
+  </si>
+  <si>
+    <t>Televisor 75” (Cota Reservada ME-EPP)</t>
+  </si>
+  <si>
+    <t>Balcão Térmico Refrigerado (Cota Reservada ME-EPP)</t>
+  </si>
+  <si>
+    <t>Máquina De Lavar Louça Industrial (Cota Reservada ME-EPP)</t>
+  </si>
+  <si>
+    <t>Balcão Térmico Quente (Cota Reservada ME-EPP)</t>
+  </si>
+  <si>
+    <t>Refresqueira Industrial 150 L (Cota Reservada ME-EPP)</t>
+  </si>
+  <si>
+    <t>Refresqueira Industrial 150 L</t>
+  </si>
+  <si>
+    <t>Forno Padaria Turbo 5 Estrelas (Cota Reservada ME-EPP)</t>
+  </si>
+  <si>
+    <t>Cafeteira Industrial (Cota Reservada ME-EPP)</t>
+  </si>
+  <si>
+    <t>Câmara De Fermentação De Pães (Cota Reservada ME-EPP)</t>
+  </si>
+  <si>
+    <t>Serra Fita Para Ossos (Cota Reservada ME-EPP)</t>
+  </si>
+  <si>
+    <t>Máquina De Gelo (Cota Reservada ME-EPP)</t>
+  </si>
+  <si>
+    <t>Freezer Horizontal (Cota Reservada ME-EPP)</t>
+  </si>
+  <si>
+    <t>Geladeira Industrial 4 Portas (Cota Reservada ME-EPP)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pass Trough Refrigerado </t>
+  </si>
+  <si>
+    <t>Pass Trough Refrigerado (Cota Reservada ME-EPP)</t>
+  </si>
+  <si>
+    <t>Pass Through Quente (Cota Reservada ME-EPP)</t>
+  </si>
+  <si>
+    <t>Caldeirão Industrial Autoclavado 500 L (Cota Reservada ME-EPP)</t>
+  </si>
+  <si>
+    <t>Forno Combinado Com 10 Gns (Cota Reservada ME-EPP)</t>
+  </si>
+  <si>
+    <t>Forno Combinado Com 20 Gns (Cota Reservada ME-EPP)</t>
+  </si>
+  <si>
+    <t>Chapa Bifeteira Com Pé (Cota Reservada ME-EPP)</t>
+  </si>
+  <si>
+    <t>Ar-Condicionado 60.000 Btu (Instalação Inclusa) (Cota Reservada ME-EPP)</t>
+  </si>
+  <si>
+    <t>Ar-Condicionado 48.000 Btu (Instalação Inclusa) (Cota Reservada ME-EPP)</t>
+  </si>
+  <si>
+    <t>Ar-Condicionado 36.000 Btu (Instalação Inclusa) (Cota Reservada ME-EPP)</t>
+  </si>
+  <si>
+    <t>Ar-Condicionado 18.000 Btu (Instalação Inclusa) (Cota Reservada ME-EPP)</t>
+  </si>
+  <si>
+    <t>Ar-Condicionado 12.000 Btu (Instalação Inclusa) (Cota Reservada ME-EPP)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Máquina de gelo em cubas 100kg/dia, 220v.
+Capacidade do reservatório: 40kg ou maior
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Carlito;Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Peso do gelo: aproximadamente 6g / </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Tipo de gelo: cubos / Material: aço inox
+Potência: 270w / Dimensão aproximada do produto ( l x p x a): 67 x 66 x 120cm
+Peso produto: 77kg
+(Referência SRM-105A ou de qualidade equivalente) </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Serra fita  - estrutura em aço inox 430
+Sistema de segurança eletrônico que impede o contato com a lâmina de corte enquanto a máquina estiver em uso / Características Modelo: 
+Comprimento da Lâmina: 2.820mm / Largura do Corte: 315mm
+Altura do Corte: 285mm / Voltagem: 220V / Potência: 2,0 CV
+(Referência </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Carlito;Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>SL-282 ou de qualidade equivalente)</t>
+    </r>
+  </si>
+  <si>
+    <r>
       <t xml:space="preserve">Televisor
 Características Adicionais: 4k, 3d E Smart Tv, Mínimo: 2 Usb, 3 Hdmi, Wi-Fi In
 </t>
@@ -560,94 +623,7 @@
     </r>
   </si>
   <si>
-    <t>Aparelho Ar Condicionado Capacidade Refrigeração: 12.000 BTU Modelo: Fancolete Hidrônico Características Adicionais 1: Controle Remoto S/Fio, Inverter, Tipo: Split Hi Wall / Tensão: 220, (instalação inclusa)</t>
-  </si>
-  <si>
-    <t>Televisor 50” (Cota Reservada ME-EPP)</t>
-  </si>
-  <si>
-    <t>Televisor 75” (Cota Reservada ME-EPP)</t>
-  </si>
-  <si>
-    <t>Balcão Térmico Refrigerado (Cota Reservada ME-EPP)</t>
-  </si>
-  <si>
-    <t>Máquina De Lavar Louça Industrial (Cota Reservada ME-EPP)</t>
-  </si>
-  <si>
-    <t>Balcão Térmico Quente (Cota Reservada ME-EPP)</t>
-  </si>
-  <si>
-    <t>Refresqueira Industrial 150 L (Cota Reservada ME-EPP)</t>
-  </si>
-  <si>
-    <t>Refresqueira Industrial 150 L</t>
-  </si>
-  <si>
-    <t>Forno Padaria Turbo 5 Estrelas (Cota Reservada ME-EPP)</t>
-  </si>
-  <si>
-    <t>Cafeteira Industrial (Cota Reservada ME-EPP)</t>
-  </si>
-  <si>
-    <t>Câmara De Fermentação De Pães (Cota Reservada ME-EPP)</t>
-  </si>
-  <si>
-    <t>Serra Fita Para Ossos (Cota Reservada ME-EPP)</t>
-  </si>
-  <si>
-    <t>Máquina De Gelo (Cota Reservada ME-EPP)</t>
-  </si>
-  <si>
-    <t>Freezer Horizontal (Cota Reservada ME-EPP)</t>
-  </si>
-  <si>
-    <t>Geladeira Industrial 4 Portas (Cota Reservada ME-EPP)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pass Trough Refrigerado </t>
-  </si>
-  <si>
-    <t>Pass Trough Refrigerado (Cota Reservada ME-EPP)</t>
-  </si>
-  <si>
-    <t>Pass Through Quente (Cota Reservada ME-EPP)</t>
-  </si>
-  <si>
-    <t>Caldeirão Industrial Autoclavado 500 L (Cota Reservada ME-EPP)</t>
-  </si>
-  <si>
-    <t>Forno Combinado Com 10 Gns (Cota Reservada ME-EPP)</t>
-  </si>
-  <si>
-    <t>Forno Combinado Com 20 Gns (Cota Reservada ME-EPP)</t>
-  </si>
-  <si>
-    <t>Chapa Bifeteira Com Pé (Cota Reservada ME-EPP)</t>
-  </si>
-  <si>
-    <t>Ar-Condicionado 60.000 Btu (Instalação Inclusa) (Cota Reservada ME-EPP)</t>
-  </si>
-  <si>
-    <t>Ar-Condicionado 48.000 Btu (Instalação Inclusa) (Cota Reservada ME-EPP)</t>
-  </si>
-  <si>
-    <t>Ar-Condicionado 36.000 Btu (Instalação Inclusa) (Cota Reservada ME-EPP)</t>
-  </si>
-  <si>
-    <t>Ar-Condicionado 18.000 Btu (Instalação Inclusa) (Cota Reservada ME-EPP)</t>
-  </si>
-  <si>
-    <t>Ar-Condicionado 12.000 Btu (Instalação Inclusa) (Cota Reservada ME-EPP)</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
+    <r>
       <t xml:space="preserve">Televisor
 Características Adicionais: 4k, 3d E Smart Tv, Mínimo: 2 Usb, 3 Hdmi, Wi-Fi In
 </t>
@@ -685,12 +661,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
       <t xml:space="preserve">Televisor
 Características Adicionais: 4k, 3d E Smart Tv, Mínimo: 2 Usb, 3 Hdmi, Wi-Fi In
 </t>
@@ -728,12 +698,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
       <t xml:space="preserve">Televisor
 Características Adicionais: 4k, 3d E Smart Tv, Mínimo: 2 Usb, 3 Hdmi, Wi-Fi In
 </t>
@@ -771,12 +735,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
       <t xml:space="preserve">Televisor
 Características Adicionais: 4k, 3d E Smart Tv, Mínimo: 2 Usb, 3 Hdmi, Wi-Fi In
 </t>
@@ -814,12 +772,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
       <t xml:space="preserve">Televisor
 Características Adicionais: 4k, 3d E Smart Tv, Mínimo: 2 Usb, 3 Hdmi, Wi-Fi In
 </t>
@@ -857,12 +809,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
       <t xml:space="preserve">Televisor
 Características Adicionais: 4k, 3d E Smart Tv, Mínimo: 2 Usb, 3 Hdmi, Wi-Fi In
 </t>
@@ -900,12 +846,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
       <t xml:space="preserve">Televisor
 Características Adicionais: 4k, 3d E Smart Tv, Mínimo: 2 Usb, 3 Hdmi, Wi-Fi In
 </t>
@@ -943,12 +883,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
       <t xml:space="preserve">Televisor
 Características Adicionais: 4k, 3d E Smart Tv, Mínimo: 2 Usb, 3 Hdmi, Wi-Fi In
 </t>
@@ -986,12 +920,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
       <t xml:space="preserve">Televisor
 Características Adicionais: 4k, 3d E Smart Tv, Mínimo: 2 Usb, 3 Hdmi, Wi-Fi In
 </t>
@@ -1029,12 +957,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
       <t xml:space="preserve">Televisor
 Características Adicionais: 4k, 3d E Smart Tv, Mínimo: 2 Usb, 3 Hdmi, Wi-Fi In
 </t>
@@ -1072,12 +994,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
       <t xml:space="preserve">Televisor
 Características Adicionais: 4k, 3d E Smart Tv, Mínimo: 2 Usb, 3 Hdmi, Wi-Fi In
 </t>
@@ -1115,12 +1031,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
       <t xml:space="preserve">Televisor
 Características Adicionais: 4k, 3d E Smart Tv, Mínimo: 2 Usb, 3 Hdmi, Wi-Fi In
 </t>
@@ -1158,12 +1068,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
       <t xml:space="preserve">Televisor
 Características Adicionais: 4k, 3d E Smart Tv, Mínimo: 2 Usb, 3 Hdmi, Wi-Fi In
 </t>
@@ -1201,12 +1105,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
       <t xml:space="preserve">Televisor
 Características Adicionais: 4k, 3d E Smart Tv, Mínimo: 2 Usb, 3 Hdmi, Wi-Fi In
 </t>
@@ -1244,12 +1142,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
       <t xml:space="preserve">Televisor
 Características Adicionais: 4k, 3d E Smart Tv, Mínimo: 2 Usb, 3 Hdmi, Wi-Fi In
 </t>
@@ -1287,12 +1179,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
       <t xml:space="preserve">Televisor
 Características Adicionais: 4k, 3d E Smart Tv, Mínimo: 2 Usb, 3 Hdmi, Wi-Fi In
 </t>
@@ -1330,12 +1216,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
       <t xml:space="preserve">Televisor
 Características Adicionais: 4k, 3d E Smart Tv, Mínimo: 2 Usb, 3 Hdmi, Wi-Fi In
 </t>
@@ -1373,12 +1253,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
       <t xml:space="preserve">Televisor
 Características Adicionais: 4k, 3d E Smart Tv, Mínimo: 2 Usb, 3 Hdmi, Wi-Fi In
 </t>
@@ -1416,12 +1290,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
       <t xml:space="preserve">Televisor
 Características Adicionais: 4k, 3d E Smart Tv, Mínimo: 2 Usb, 3 Hdmi, Wi-Fi In
 </t>
@@ -1459,12 +1327,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
       <t xml:space="preserve">Televisor
 Características Adicionais: 4k, 3d E Smart Tv, Mínimo: 2 Usb, 3 Hdmi, Wi-Fi In
 </t>
@@ -1502,12 +1364,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
       <t xml:space="preserve">Televisor
 Características Adicionais: 4k, 3d E Smart Tv, Mínimo: 2 Usb, 3 Hdmi, Wi-Fi In
 </t>
@@ -1545,12 +1401,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
       <t xml:space="preserve">Televisor
 Características Adicionais: 4k, 3d E Smart Tv, Mínimo: 2 Usb, 3 Hdmi, Wi-Fi In
 </t>
@@ -1588,12 +1438,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
       <t xml:space="preserve">Televisor
 Características Adicionais: 4k, 3d E Smart Tv, Mínimo: 2 Usb, 3 Hdmi, Wi-Fi In
 </t>
@@ -1631,12 +1475,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
       <t xml:space="preserve">Televisor
 Características Adicionais: 4k, 3d E Smart Tv, Mínimo: 2 Usb, 3 Hdmi, Wi-Fi In
 </t>
@@ -1674,12 +1512,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
       <t xml:space="preserve">Televisor
 Características Adicionais: 4k, 3d E Smart Tv, Mínimo: 2 Usb, 3 Hdmi, Wi-Fi In
 </t>
@@ -1717,12 +1549,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
       <t xml:space="preserve">Televisor
 Características Adicionais: 4k, 3d E Smart Tv, Mínimo: 2 Usb, 3 Hdmi, Wi-Fi In
 </t>
@@ -1760,12 +1586,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
       <t xml:space="preserve">Televisor
 Características Adicionais: 4k, 3d E Smart Tv, Mínimo: 2 Usb, 3 Hdmi, Wi-Fi In
 </t>
@@ -1803,12 +1623,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
       <t xml:space="preserve">Televisor
 Características Adicionais: 4k, 3d E Smart Tv, Mínimo: 2 Usb, 3 Hdmi, Wi-Fi In
 </t>
@@ -1846,12 +1660,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
       <t xml:space="preserve">Televisor
 Características Adicionais: 4k, 3d E Smart Tv, Mínimo: 2 Usb, 3 Hdmi, Wi-Fi In
 </t>
@@ -1889,12 +1697,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
       <t xml:space="preserve">Televisor
 Características Adicionais: 4k, 3d E Smart Tv, Mínimo: 2 Usb, 3 Hdmi, Wi-Fi In
 </t>
@@ -1932,12 +1734,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
       <t xml:space="preserve">Televisor
 Características Adicionais: 4k, 3d E Smart Tv, Mínimo: 2 Usb, 3 Hdmi, Wi-Fi In
 </t>
@@ -1975,12 +1771,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
       <t xml:space="preserve">Televisor
 Características Adicionais: 4k, 3d E Smart Tv, Mínimo: 2 Usb, 3 Hdmi, Wi-Fi In
 </t>
@@ -2018,12 +1808,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
       <t xml:space="preserve">Televisor
 Características Adicionais: 4k, 3d E Smart Tv, Mínimo: 2 Usb, 3 Hdmi, Wi-Fi In
 </t>
@@ -2061,12 +1845,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
       <t xml:space="preserve">Televisor
 Características Adicionais: 4k, 3d E Smart Tv, Mínimo: 2 Usb, 3 Hdmi, Wi-Fi In
 </t>
@@ -2104,12 +1882,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
       <t xml:space="preserve">Televisor
 Características Adicionais: 4k, 3d E Smart Tv, Mínimo: 2 Usb, 3 Hdmi, Wi-Fi In
 </t>
@@ -2147,12 +1919,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
       <t xml:space="preserve">Televisor
 Características Adicionais: 4k, 3d E Smart Tv, Mínimo: 2 Usb, 3 Hdmi, Wi-Fi In
 </t>
@@ -2190,12 +1956,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
       <t xml:space="preserve">Televisor
 Características Adicionais: 4k, 3d E Smart Tv, Mínimo: 2 Usb, 3 Hdmi, Wi-Fi In
 </t>
@@ -2233,12 +1993,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
       <t xml:space="preserve">Televisor
 Características Adicionais: 4k, 3d E Smart Tv, Mínimo: 2 Usb, 3 Hdmi, Wi-Fi In
 </t>
@@ -2276,12 +2030,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
       <t xml:space="preserve">Televisor
 Características Adicionais: 4k, 3d E Smart Tv, Mínimo: 2 Usb, 3 Hdmi, Wi-Fi In
 </t>
@@ -2319,12 +2067,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
       <t xml:space="preserve">Televisor
 Características Adicionais: 4k, 3d E Smart Tv, Mínimo: 2 Usb, 3 Hdmi, Wi-Fi In
 </t>
@@ -2362,12 +2104,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
       <t xml:space="preserve">Televisor
 Características Adicionais: 4k, 3d E Smart Tv, Mínimo: 2 Usb, 3 Hdmi, Wi-Fi In
 </t>
@@ -2405,12 +2141,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
       <t xml:space="preserve">Televisor
 Características Adicionais: 4k, 3d E Smart Tv, Mínimo: 2 Usb, 3 Hdmi, Wi-Fi In
 </t>
@@ -2448,12 +2178,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
       <t xml:space="preserve">Televisor
 Características Adicionais: 4k, 3d E Smart Tv, Mínimo: 2 Usb, 3 Hdmi, Wi-Fi In
 </t>
@@ -2491,12 +2215,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
       <t xml:space="preserve">Televisor
 Características Adicionais: 4k, 3d E Smart Tv, Mínimo: 2 Usb, 3 Hdmi, Wi-Fi In
 </t>
@@ -2534,12 +2252,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
       <t xml:space="preserve">Televisor
 Características Adicionais: 4k, 3d E Smart Tv, Mínimo: 2 Usb, 3 Hdmi, Wi-Fi In
 </t>
@@ -2577,12 +2289,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
       <t xml:space="preserve">Televisor
 Características Adicionais: 4k, 3d E Smart Tv, Mínimo: 2 Usb, 3 Hdmi, Wi-Fi In
 </t>
@@ -2620,12 +2326,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
       <t xml:space="preserve">Televisor
 Características Adicionais: 4k, 3d E Smart Tv, Mínimo: 2 Usb, 3 Hdmi, Wi-Fi In
 </t>
@@ -2663,12 +2363,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
       <t xml:space="preserve">Televisor
 Características Adicionais: 4k, 3d E Smart Tv, Mínimo: 2 Usb, 3 Hdmi, Wi-Fi In
 </t>
@@ -2706,12 +2400,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
       <t xml:space="preserve">Televisor
 Características Adicionais: 4k, 3d E Smart Tv, Mínimo: 2 Usb, 3 Hdmi, Wi-Fi In
 </t>
@@ -2749,12 +2437,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
       <t xml:space="preserve">Televisor
 Características Adicionais: 4k, 3d E Smart Tv, Mínimo: 2 Usb, 3 Hdmi, Wi-Fi In
 </t>
@@ -2792,12 +2474,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
       <t xml:space="preserve">Televisor
 Características Adicionais: 4k, 3d E Smart Tv, Mínimo: 2 Usb, 3 Hdmi, Wi-Fi In
 </t>
@@ -2835,12 +2511,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
       <t xml:space="preserve">Televisor
 Características Adicionais: 4k, 3d E Smart Tv, Mínimo: 2 Usb, 3 Hdmi, Wi-Fi In
 </t>
@@ -2878,12 +2548,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
       <t xml:space="preserve">Televisor
 Características Adicionais: 4k, 3d E Smart Tv, Mínimo: 2 Usb, 3 Hdmi, Wi-Fi In
 </t>
@@ -2921,12 +2585,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
       <t xml:space="preserve">Televisor
 Características Adicionais: 4k, 3d E Smart Tv, Mínimo: 2 Usb, 3 Hdmi, Wi-Fi In
 </t>
@@ -2964,12 +2622,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
       <t xml:space="preserve">Televisor
 Características Adicionais: 4k, 3d E Smart Tv, Mínimo: 2 Usb, 3 Hdmi, Wi-Fi In
 </t>
@@ -3007,12 +2659,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
       <t xml:space="preserve">Televisor
 Características Adicionais: 4k, 3d E Smart Tv, Mínimo: 2 Usb, 3 Hdmi, Wi-Fi In
 </t>
@@ -3050,12 +2696,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
       <t xml:space="preserve">Televisor
 Características Adicionais: 4k, 3d E Smart Tv, Mínimo: 2 Usb, 3 Hdmi, Wi-Fi In
 </t>
@@ -3093,12 +2733,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
       <t xml:space="preserve">Televisor
 Características Adicionais: 4k, 3d E Smart Tv, Mínimo: 2 Usb, 3 Hdmi, Wi-Fi In
 </t>
@@ -3136,12 +2770,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
       <t xml:space="preserve">Televisor
 Características Adicionais: 4k, 3d E Smart Tv, Mínimo: 2 Usb, 3 Hdmi, Wi-Fi In
 </t>
@@ -3179,12 +2807,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
       <t xml:space="preserve">Televisor
 Características Adicionais: 4k, 3d E Smart Tv, Mínimo: 2 Usb, 3 Hdmi, Wi-Fi In
 </t>
@@ -3222,12 +2844,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
       <t xml:space="preserve">Televisor
 Características Adicionais: 4k, 3d E Smart Tv, Mínimo: 2 Usb, 3 Hdmi, Wi-Fi In
 </t>
@@ -3268,7 +2884,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -3294,20 +2910,6 @@
       <family val="2"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Carlito;Calibri"/>
@@ -3315,6 +2917,12 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -3388,25 +2996,31 @@
   </cellStyleXfs>
   <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3422,10 +3036,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3540,18 +3150,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AME131"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A103" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A69" sqref="A69:A131"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.54296875" defaultRowHeight="15.5"/>
+  <sheetFormatPr defaultColWidth="12.88671875" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="37.453125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="10.453125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="48.26953125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="129" style="1" customWidth="1"/>
-    <col min="5" max="1012" width="9.08984375" style="1" hidden="1" customWidth="1"/>
-    <col min="1013" max="1019" width="9.08984375" style="3" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="12.88671875" style="5"/>
+    <col min="2" max="2" width="12.88671875" style="8"/>
+    <col min="3" max="3" width="26.21875" style="8" customWidth="1"/>
+    <col min="4" max="4" width="131" style="5" customWidth="1"/>
+    <col min="5" max="1012" width="12.88671875" style="5"/>
+    <col min="1013" max="1019" width="12.88671875" style="6"/>
+    <col min="1020" max="16384" width="12.88671875" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -3568,1829 +3179,1829 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="5">
+    <row r="2" spans="1:4" ht="31.2">
+      <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="6">
+      <c r="B2" s="1">
         <v>458218</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="46.8">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1">
+        <v>458218</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="43.2">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1">
+        <v>458191</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="46.8">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1">
+        <v>458191</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="57.6">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1">
+        <v>603721</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="57.6">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1">
+        <v>603721</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="57.6">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1">
+        <v>470880</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="57.6">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1">
+        <v>470880</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="57.6">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1">
+        <v>480929</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="57.6">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1">
+        <v>480929</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="86.4">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1">
+        <v>442496</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="86.4">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1">
+        <v>442496</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="100.8">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1">
+        <v>255374</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="100.8">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1">
+        <v>457010</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="100.8">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1">
+        <v>457010</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="57.6">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1">
+        <v>457010</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="57.6">
+      <c r="A18" s="1">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1">
+        <v>457010</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="86.4">
+      <c r="A19" s="1">
+        <v>18</v>
+      </c>
+      <c r="B19" s="1">
+        <v>402447</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="86.4">
+      <c r="A20" s="1">
+        <v>19</v>
+      </c>
+      <c r="B20" s="1">
+        <v>402447</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="86.4">
+      <c r="A21" s="1">
+        <v>20</v>
+      </c>
+      <c r="B21" s="1">
+        <v>283613</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="86.4">
+      <c r="A22" s="1">
+        <v>21</v>
+      </c>
+      <c r="B22" s="1">
+        <v>283613</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="57.6">
+      <c r="A23" s="1">
+        <v>22</v>
+      </c>
+      <c r="B23" s="1">
+        <v>483276</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="57.6">
+      <c r="A24" s="1">
+        <v>23</v>
+      </c>
+      <c r="B24" s="1">
+        <v>483276</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="100.8">
+      <c r="A25" s="1">
+        <v>24</v>
+      </c>
+      <c r="B25" s="1">
+        <v>481373</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="86.4">
+      <c r="A26" s="1">
+        <v>25</v>
+      </c>
+      <c r="B26" s="1">
+        <v>431283</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="100.8">
+      <c r="A27" s="1">
+        <v>26</v>
+      </c>
+      <c r="B27" s="1">
+        <v>473222</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="72">
+      <c r="A28" s="1">
+        <v>27</v>
+      </c>
+      <c r="B28" s="1">
+        <v>465888</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="72">
+      <c r="A29" s="1">
+        <v>28</v>
+      </c>
+      <c r="B29" s="1">
+        <v>258164</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="72">
+      <c r="A30" s="1">
+        <v>29</v>
+      </c>
+      <c r="B30" s="1">
+        <v>258164</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="72">
+      <c r="A31" s="1">
+        <v>30</v>
+      </c>
+      <c r="B31" s="1">
+        <v>486585</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="100.8">
+      <c r="A32" s="1">
+        <v>31</v>
+      </c>
+      <c r="B32" s="1">
+        <v>445210</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="100.8">
+      <c r="A33" s="1">
+        <v>32</v>
+      </c>
+      <c r="B33" s="1">
+        <v>445210</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="57.6">
+      <c r="A34" s="1">
+        <v>33</v>
+      </c>
+      <c r="B34" s="1">
+        <v>479243</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="87.6">
+      <c r="A35" s="1">
+        <v>34</v>
+      </c>
+      <c r="B35" s="1">
+        <v>487318</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="87.6">
+      <c r="A36" s="1">
+        <v>35</v>
+      </c>
+      <c r="B36" s="1">
+        <v>487318</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="100.8">
+      <c r="A37" s="1">
+        <v>36</v>
+      </c>
+      <c r="B37" s="1">
+        <v>445256</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="72">
+      <c r="A38" s="1">
+        <v>37</v>
+      </c>
+      <c r="B38" s="1">
+        <v>253635</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="73.2">
+      <c r="A39" s="1">
+        <v>38</v>
+      </c>
+      <c r="B39" s="1">
+        <v>442377</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="73.2">
+      <c r="A40" s="1">
+        <v>39</v>
+      </c>
+      <c r="B40" s="1">
+        <v>442377</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="72">
+      <c r="A41" s="1">
+        <v>40</v>
+      </c>
+      <c r="B41" s="1">
+        <v>384273</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="86.4">
+      <c r="A42" s="1">
+        <v>41</v>
+      </c>
+      <c r="B42" s="1">
+        <v>330755</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="86.4">
+      <c r="A43" s="1">
+        <v>42</v>
+      </c>
+      <c r="B43" s="1">
+        <v>330755</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="100.8">
+      <c r="A44" s="1">
+        <v>43</v>
+      </c>
+      <c r="B44" s="1">
+        <v>486185</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="57.6">
+      <c r="A45" s="1">
+        <v>44</v>
+      </c>
+      <c r="B45" s="1">
+        <v>600067</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="57.6">
+      <c r="A46" s="1">
+        <v>45</v>
+      </c>
+      <c r="B46" s="1">
+        <v>298065</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="129.6">
+      <c r="A47" s="1">
+        <v>46</v>
+      </c>
+      <c r="B47" s="1">
+        <v>423374</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="129.6">
+      <c r="A48" s="1">
+        <v>47</v>
+      </c>
+      <c r="B48" s="1">
+        <v>423374</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="72">
+      <c r="A49" s="1">
+        <v>48</v>
+      </c>
+      <c r="B49" s="1">
+        <v>430063</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="115.2">
+      <c r="A50" s="1">
+        <v>49</v>
+      </c>
+      <c r="B50" s="1">
+        <v>474330</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="100.8">
+      <c r="A51" s="1">
+        <v>50</v>
+      </c>
+      <c r="B51" s="1">
+        <v>457010</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" ht="100.8">
+      <c r="A52" s="1">
+        <v>51</v>
+      </c>
+      <c r="B52" s="1">
+        <v>457010</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" ht="100.8">
+      <c r="A53" s="1">
+        <v>52</v>
+      </c>
+      <c r="B53" s="1">
+        <v>451529</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" ht="100.8">
+      <c r="A54" s="1">
+        <v>53</v>
+      </c>
+      <c r="B54" s="1">
+        <v>451529</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" ht="100.8">
+      <c r="A55" s="1">
+        <v>54</v>
+      </c>
+      <c r="B55" s="1">
+        <v>317762</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" ht="72">
+      <c r="A56" s="1">
+        <v>55</v>
+      </c>
+      <c r="B56" s="1">
+        <v>449988</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" ht="86.4">
+      <c r="A57" s="1">
+        <v>56</v>
+      </c>
+      <c r="B57" s="1">
+        <v>483292</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" ht="86.4">
+      <c r="A58" s="1">
+        <v>57</v>
+      </c>
+      <c r="B58" s="1">
+        <v>451184</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" ht="115.2">
+      <c r="A59" s="1">
+        <v>58</v>
+      </c>
+      <c r="B59" s="1">
+        <v>255706</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" ht="115.2">
+      <c r="A60" s="1">
+        <v>59</v>
+      </c>
+      <c r="B60" s="1">
+        <v>255706</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" ht="72">
+      <c r="A61" s="1">
+        <v>60</v>
+      </c>
+      <c r="B61" s="1">
+        <v>453490</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D61" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" ht="86.4">
+      <c r="A62" s="1">
+        <v>61</v>
+      </c>
+      <c r="B62" s="1">
+        <v>260540</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D62" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" ht="86.4">
+      <c r="A63" s="1">
+        <v>62</v>
+      </c>
+      <c r="B63" s="1">
+        <v>260540</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="D63" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" ht="86.4">
+      <c r="A64" s="1">
+        <v>63</v>
+      </c>
+      <c r="B64" s="1">
+        <v>254906</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D64" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" ht="86.4">
+      <c r="A65" s="1">
+        <v>64</v>
+      </c>
+      <c r="B65" s="1">
+        <v>254906</v>
+      </c>
+      <c r="C65" s="2" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="5">
-        <v>2</v>
-      </c>
-      <c r="B3" s="6">
-        <v>458218</v>
-      </c>
-      <c r="C3" s="7" t="s">
+      <c r="D65" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" ht="86.4">
+      <c r="A66" s="1">
+        <v>65</v>
+      </c>
+      <c r="B66" s="1">
+        <v>483907</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D66" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" ht="72">
+      <c r="A67" s="1">
+        <v>66</v>
+      </c>
+      <c r="B67" s="1">
+        <v>480490</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D67" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" ht="72">
+      <c r="A68" s="1">
+        <v>67</v>
+      </c>
+      <c r="B68" s="1">
+        <v>480490</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D68" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" ht="72.599999999999994">
+      <c r="A69" s="1">
+        <v>68</v>
+      </c>
+      <c r="B69" s="1">
+        <v>439607</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D69" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="D3" s="8" t="s">
+    </row>
+    <row r="70" spans="1:4" ht="72.599999999999994">
+      <c r="A70" s="1">
+        <v>69</v>
+      </c>
+      <c r="B70" s="1">
+        <v>439607</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D70" s="3" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" ht="72.599999999999994">
+      <c r="A71" s="1">
+        <v>70</v>
+      </c>
+      <c r="B71" s="1">
+        <v>439607</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D71" s="3" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" ht="72.599999999999994">
+      <c r="A72" s="1">
+        <v>71</v>
+      </c>
+      <c r="B72" s="1">
+        <v>439607</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D72" s="3" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" ht="72.599999999999994">
+      <c r="A73" s="1">
+        <v>72</v>
+      </c>
+      <c r="B73" s="1">
+        <v>439607</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D73" s="3" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" ht="72.599999999999994">
+      <c r="A74" s="1">
+        <v>73</v>
+      </c>
+      <c r="B74" s="1">
+        <v>439607</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D74" s="3" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" ht="72.599999999999994">
+      <c r="A75" s="1">
+        <v>74</v>
+      </c>
+      <c r="B75" s="1">
+        <v>439607</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D75" s="3" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" ht="72.599999999999994">
+      <c r="A76" s="1">
+        <v>75</v>
+      </c>
+      <c r="B76" s="1">
+        <v>439607</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D76" s="3" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" ht="72.599999999999994">
+      <c r="A77" s="1">
+        <v>76</v>
+      </c>
+      <c r="B77" s="1">
+        <v>439607</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D77" s="3" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" ht="72.599999999999994">
+      <c r="A78" s="1">
+        <v>77</v>
+      </c>
+      <c r="B78" s="1">
+        <v>439607</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D78" s="3" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" ht="72.599999999999994">
+      <c r="A79" s="1">
+        <v>78</v>
+      </c>
+      <c r="B79" s="1">
+        <v>439607</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D79" s="3" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" ht="72.599999999999994">
+      <c r="A80" s="1">
+        <v>79</v>
+      </c>
+      <c r="B80" s="1">
+        <v>439607</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D80" s="3" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" ht="72.599999999999994">
+      <c r="A81" s="1">
+        <v>80</v>
+      </c>
+      <c r="B81" s="1">
+        <v>439607</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D81" s="3" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" ht="72.599999999999994">
+      <c r="A82" s="1">
+        <v>81</v>
+      </c>
+      <c r="B82" s="1">
+        <v>439607</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D82" s="3" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" ht="72.599999999999994">
+      <c r="A83" s="1">
+        <v>82</v>
+      </c>
+      <c r="B83" s="1">
+        <v>439607</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D83" s="3" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" ht="72.599999999999994">
+      <c r="A84" s="1">
+        <v>83</v>
+      </c>
+      <c r="B84" s="1">
+        <v>439607</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D84" s="3" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" ht="72.599999999999994">
+      <c r="A85" s="1">
+        <v>84</v>
+      </c>
+      <c r="B85" s="1">
+        <v>439607</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D85" s="3" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" ht="72.599999999999994">
+      <c r="A86" s="1">
+        <v>85</v>
+      </c>
+      <c r="B86" s="1">
+        <v>439607</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D86" s="3" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" ht="72.599999999999994">
+      <c r="A87" s="1">
+        <v>86</v>
+      </c>
+      <c r="B87" s="1">
+        <v>439607</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D87" s="3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" ht="72.599999999999994">
+      <c r="A88" s="1">
+        <v>87</v>
+      </c>
+      <c r="B88" s="1">
+        <v>439607</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D88" s="3" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" ht="72.599999999999994">
+      <c r="A89" s="1">
+        <v>88</v>
+      </c>
+      <c r="B89" s="1">
+        <v>439607</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D89" s="3" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" ht="72.599999999999994">
+      <c r="A90" s="1">
+        <v>89</v>
+      </c>
+      <c r="B90" s="1">
+        <v>439607</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D90" s="3" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" ht="72.599999999999994">
+      <c r="A91" s="1">
+        <v>90</v>
+      </c>
+      <c r="B91" s="1">
+        <v>439607</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D91" s="3" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" ht="72.599999999999994">
+      <c r="A92" s="1">
         <v>91</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="5">
-        <v>3</v>
-      </c>
-      <c r="B4" s="6">
-        <v>458191</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="5">
-        <v>4</v>
-      </c>
-      <c r="B5" s="6">
-        <v>458191</v>
-      </c>
-      <c r="C5" s="7" t="s">
+      <c r="B92" s="1">
+        <v>439607</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D92" s="3" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" ht="72.599999999999994">
+      <c r="A93" s="1">
+        <v>92</v>
+      </c>
+      <c r="B93" s="1">
+        <v>439607</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D93" s="3" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" ht="72.599999999999994">
+      <c r="A94" s="1">
+        <v>93</v>
+      </c>
+      <c r="B94" s="1">
+        <v>439607</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D94" s="3" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" ht="72.599999999999994">
+      <c r="A95" s="1">
+        <v>94</v>
+      </c>
+      <c r="B95" s="1">
+        <v>439607</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D95" s="3" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" ht="72.599999999999994">
+      <c r="A96" s="1">
+        <v>95</v>
+      </c>
+      <c r="B96" s="1">
+        <v>439607</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D96" s="3" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" ht="72.599999999999994">
+      <c r="A97" s="1">
+        <v>96</v>
+      </c>
+      <c r="B97" s="1">
+        <v>439607</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D97" s="3" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" ht="72.599999999999994">
+      <c r="A98" s="1">
+        <v>97</v>
+      </c>
+      <c r="B98" s="1">
+        <v>439607</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D98" s="3" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" ht="72.599999999999994">
+      <c r="A99" s="1">
+        <v>98</v>
+      </c>
+      <c r="B99" s="1">
+        <v>439607</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D99" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" ht="72.599999999999994">
+      <c r="A100" s="1">
+        <v>99</v>
+      </c>
+      <c r="B100" s="1">
+        <v>439607</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D100" s="3" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" ht="72.599999999999994">
+      <c r="A101" s="1">
+        <v>100</v>
+      </c>
+      <c r="B101" s="1">
+        <v>439607</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D101" s="3" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" ht="72.599999999999994">
+      <c r="A102" s="1">
+        <v>101</v>
+      </c>
+      <c r="B102" s="1">
+        <v>439607</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D102" s="3" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" ht="72.599999999999994">
+      <c r="A103" s="1">
+        <v>102</v>
+      </c>
+      <c r="B103" s="1">
+        <v>439607</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D103" s="3" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" ht="72.599999999999994">
+      <c r="A104" s="1">
+        <v>103</v>
+      </c>
+      <c r="B104" s="1">
+        <v>439607</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D104" s="3" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" ht="72.599999999999994">
+      <c r="A105" s="1">
+        <v>104</v>
+      </c>
+      <c r="B105" s="1">
+        <v>439607</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D105" s="3" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" ht="72.599999999999994">
+      <c r="A106" s="1">
+        <v>105</v>
+      </c>
+      <c r="B106" s="1">
+        <v>439607</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D106" s="3" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" ht="72.599999999999994">
+      <c r="A107" s="1">
+        <v>106</v>
+      </c>
+      <c r="B107" s="1">
+        <v>439607</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D107" s="3" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" ht="72.599999999999994">
+      <c r="A108" s="1">
+        <v>107</v>
+      </c>
+      <c r="B108" s="1">
+        <v>439607</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D108" s="3" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" ht="72.599999999999994">
+      <c r="A109" s="1">
+        <v>108</v>
+      </c>
+      <c r="B109" s="1">
+        <v>439607</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D109" s="3" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" ht="72.599999999999994">
+      <c r="A110" s="1">
+        <v>109</v>
+      </c>
+      <c r="B110" s="1">
+        <v>439607</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D110" s="3" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" ht="72.599999999999994">
+      <c r="A111" s="1">
+        <v>110</v>
+      </c>
+      <c r="B111" s="1">
+        <v>439607</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D111" s="3" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" ht="72.599999999999994">
+      <c r="A112" s="1">
+        <v>111</v>
+      </c>
+      <c r="B112" s="1">
+        <v>439607</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D112" s="3" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" ht="72.599999999999994">
+      <c r="A113" s="1">
+        <v>112</v>
+      </c>
+      <c r="B113" s="1">
+        <v>439607</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D113" s="3" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" ht="72.599999999999994">
+      <c r="A114" s="1">
+        <v>113</v>
+      </c>
+      <c r="B114" s="1">
+        <v>439607</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D114" s="3" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" ht="72.599999999999994">
+      <c r="A115" s="1">
+        <v>114</v>
+      </c>
+      <c r="B115" s="1">
+        <v>439607</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D115" s="3" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" ht="72.599999999999994">
+      <c r="A116" s="1">
+        <v>115</v>
+      </c>
+      <c r="B116" s="1">
+        <v>439607</v>
+      </c>
+      <c r="C116" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D116" s="3" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" ht="72.599999999999994">
+      <c r="A117" s="1">
         <v>116</v>
       </c>
-      <c r="D5" s="8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="5">
-        <v>5</v>
-      </c>
-      <c r="B6" s="6">
-        <v>603721</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="5">
-        <v>6</v>
-      </c>
-      <c r="B7" s="6">
-        <v>603721</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="5">
-        <v>7</v>
-      </c>
-      <c r="B8" s="6">
-        <v>470880</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="5">
-        <v>8</v>
-      </c>
-      <c r="B9" s="6">
-        <v>470880</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="5">
-        <v>9</v>
-      </c>
-      <c r="B10" s="6">
-        <v>480929</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="5">
-        <v>10</v>
-      </c>
-      <c r="B11" s="6">
-        <v>480929</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="5">
-        <v>11</v>
-      </c>
-      <c r="B12" s="6">
-        <v>442496</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="5">
-        <v>12</v>
-      </c>
-      <c r="B13" s="6">
-        <v>442496</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="5">
-        <v>13</v>
-      </c>
-      <c r="B14" s="6">
-        <v>255374</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="5">
-        <v>14</v>
-      </c>
-      <c r="B15" s="6">
-        <v>457010</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="5">
-        <v>15</v>
-      </c>
-      <c r="B16" s="6">
-        <v>457010</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="5">
-        <v>16</v>
-      </c>
-      <c r="B17" s="6">
-        <v>457010</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D17" s="8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="5">
-        <v>17</v>
-      </c>
-      <c r="B18" s="6">
-        <v>457010</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="D18" s="8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="5">
-        <v>18</v>
-      </c>
-      <c r="B19" s="6">
-        <v>402447</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D19" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" s="5">
-        <v>19</v>
-      </c>
-      <c r="B20" s="6">
-        <v>402447</v>
-      </c>
-      <c r="C20" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="D20" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" s="5">
-        <v>20</v>
-      </c>
-      <c r="B21" s="6">
-        <v>283613</v>
-      </c>
-      <c r="C21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D21" s="8" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" s="5">
-        <v>21</v>
-      </c>
-      <c r="B22" s="6">
-        <v>283613</v>
-      </c>
-      <c r="C22" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="D22" s="8" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23" s="5">
-        <v>22</v>
-      </c>
-      <c r="B23" s="6">
-        <v>483276</v>
-      </c>
-      <c r="C23" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="D23" s="8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24" s="5">
-        <v>23</v>
-      </c>
-      <c r="B24" s="6">
-        <v>483276</v>
-      </c>
-      <c r="C24" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="D24" s="8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25" s="5">
-        <v>24</v>
-      </c>
-      <c r="B25" s="6">
-        <v>481373</v>
-      </c>
-      <c r="C25" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D25" s="8" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="A26" s="5">
-        <v>25</v>
-      </c>
-      <c r="B26" s="6">
-        <v>431283</v>
-      </c>
-      <c r="C26" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="D26" s="8" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="A27" s="5">
-        <v>26</v>
-      </c>
-      <c r="B27" s="6">
-        <v>473222</v>
-      </c>
-      <c r="C27" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="D27" s="8" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="A28" s="5">
-        <v>27</v>
-      </c>
-      <c r="B28" s="6">
-        <v>465888</v>
-      </c>
-      <c r="C28" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="D28" s="8" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="A29" s="5">
-        <v>28</v>
-      </c>
-      <c r="B29" s="6">
-        <v>258164</v>
-      </c>
-      <c r="C29" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="D29" s="8" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
-      <c r="A30" s="5">
-        <v>29</v>
-      </c>
-      <c r="B30" s="6">
-        <v>258164</v>
-      </c>
-      <c r="C30" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="D30" s="8" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
-      <c r="A31" s="5">
-        <v>30</v>
-      </c>
-      <c r="B31" s="6">
-        <v>486585</v>
-      </c>
-      <c r="C31" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="D31" s="8" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
-      <c r="A32" s="5">
-        <v>31</v>
-      </c>
-      <c r="B32" s="6">
-        <v>445210</v>
-      </c>
-      <c r="C32" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="D32" s="8" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
-      <c r="A33" s="5">
-        <v>32</v>
-      </c>
-      <c r="B33" s="6">
-        <v>445210</v>
-      </c>
-      <c r="C33" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="D33" s="8" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
-      <c r="A34" s="5">
-        <v>33</v>
-      </c>
-      <c r="B34" s="6">
-        <v>479243</v>
-      </c>
-      <c r="C34" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="D34" s="8" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
-      <c r="A35" s="5">
-        <v>34</v>
-      </c>
-      <c r="B35" s="6">
-        <v>487318</v>
-      </c>
-      <c r="C35" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="D35" s="8" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
-      <c r="A36" s="5">
-        <v>35</v>
-      </c>
-      <c r="B36" s="6">
-        <v>487318</v>
-      </c>
-      <c r="C36" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="D36" s="8" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
-      <c r="A37" s="5">
-        <v>36</v>
-      </c>
-      <c r="B37" s="6">
-        <v>445256</v>
-      </c>
-      <c r="C37" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="D37" s="8" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
-      <c r="A38" s="5">
-        <v>37</v>
-      </c>
-      <c r="B38" s="6">
-        <v>253635</v>
-      </c>
-      <c r="C38" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="D38" s="8" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
-      <c r="A39" s="5">
-        <v>38</v>
-      </c>
-      <c r="B39" s="6">
-        <v>442377</v>
-      </c>
-      <c r="C39" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="D39" s="8" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
-      <c r="A40" s="5">
-        <v>39</v>
-      </c>
-      <c r="B40" s="6">
-        <v>442377</v>
-      </c>
-      <c r="C40" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="D40" s="8" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
-      <c r="A41" s="5">
-        <v>40</v>
-      </c>
-      <c r="B41" s="6">
-        <v>384273</v>
-      </c>
-      <c r="C41" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="D41" s="8" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
-      <c r="A42" s="5">
-        <v>41</v>
-      </c>
-      <c r="B42" s="6">
-        <v>330755</v>
-      </c>
-      <c r="C42" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="D42" s="8" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
-      <c r="A43" s="5">
-        <v>42</v>
-      </c>
-      <c r="B43" s="6">
-        <v>330755</v>
-      </c>
-      <c r="C43" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="D43" s="8" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
-      <c r="A44" s="5">
-        <v>43</v>
-      </c>
-      <c r="B44" s="6">
-        <v>486185</v>
-      </c>
-      <c r="C44" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="D44" s="8" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
-      <c r="A45" s="5">
-        <v>44</v>
-      </c>
-      <c r="B45" s="6">
-        <v>600067</v>
-      </c>
-      <c r="C45" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="D45" s="8" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4">
-      <c r="A46" s="5">
-        <v>45</v>
-      </c>
-      <c r="B46" s="6">
-        <v>298065</v>
-      </c>
-      <c r="C46" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="D46" s="8" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
-      <c r="A47" s="5">
-        <v>46</v>
-      </c>
-      <c r="B47" s="6">
-        <v>423374</v>
-      </c>
-      <c r="C47" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="D47" s="8" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
-      <c r="A48" s="5">
-        <v>47</v>
-      </c>
-      <c r="B48" s="6">
-        <v>423374</v>
-      </c>
-      <c r="C48" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="D48" s="8" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
-      <c r="A49" s="5">
-        <v>48</v>
-      </c>
-      <c r="B49" s="6">
-        <v>430063</v>
-      </c>
-      <c r="C49" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="D49" s="8" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
-      <c r="A50" s="5">
-        <v>49</v>
-      </c>
-      <c r="B50" s="6">
-        <v>474330</v>
-      </c>
-      <c r="C50" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="D50" s="8" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
-      <c r="A51" s="5">
-        <v>50</v>
-      </c>
-      <c r="B51" s="6">
-        <v>457010</v>
-      </c>
-      <c r="C51" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="D51" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
-      <c r="A52" s="5">
-        <v>51</v>
-      </c>
-      <c r="B52" s="6">
-        <v>457010</v>
-      </c>
-      <c r="C52" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="D52" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4">
-      <c r="A53" s="5">
-        <v>52</v>
-      </c>
-      <c r="B53" s="6">
-        <v>451529</v>
-      </c>
-      <c r="C53" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="D53" s="8" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
-      <c r="A54" s="5">
-        <v>53</v>
-      </c>
-      <c r="B54" s="6">
-        <v>451529</v>
-      </c>
-      <c r="C54" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="D54" s="8" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
-      <c r="A55" s="5">
-        <v>54</v>
-      </c>
-      <c r="B55" s="6">
-        <v>317762</v>
-      </c>
-      <c r="C55" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="D55" s="8" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
-      <c r="A56" s="5">
-        <v>55</v>
-      </c>
-      <c r="B56" s="6">
-        <v>449988</v>
-      </c>
-      <c r="C56" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="D56" s="8" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
-      <c r="A57" s="5">
-        <v>56</v>
-      </c>
-      <c r="B57" s="6">
-        <v>483292</v>
-      </c>
-      <c r="C57" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="D57" s="8" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4">
-      <c r="A58" s="5">
-        <v>57</v>
-      </c>
-      <c r="B58" s="6">
-        <v>451184</v>
-      </c>
-      <c r="C58" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="D58" s="8" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
-      <c r="A59" s="5">
-        <v>58</v>
-      </c>
-      <c r="B59" s="6">
-        <v>255706</v>
-      </c>
-      <c r="C59" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="D59" s="8" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
-      <c r="A60" s="5">
-        <v>59</v>
-      </c>
-      <c r="B60" s="6">
-        <v>255706</v>
-      </c>
-      <c r="C60" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="D60" s="8" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
-      <c r="A61" s="5">
-        <v>60</v>
-      </c>
-      <c r="B61" s="6">
-        <v>453490</v>
-      </c>
-      <c r="C61" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="D61" s="8" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
-      <c r="A62" s="5">
-        <v>61</v>
-      </c>
-      <c r="B62" s="6">
-        <v>260540</v>
-      </c>
-      <c r="C62" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="D62" s="8" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
-      <c r="A63" s="5">
-        <v>62</v>
-      </c>
-      <c r="B63" s="6">
-        <v>260540</v>
-      </c>
-      <c r="C63" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="D63" s="8" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
-      <c r="A64" s="5">
-        <v>63</v>
-      </c>
-      <c r="B64" s="6">
-        <v>254906</v>
-      </c>
-      <c r="C64" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="D64" s="8" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
-      <c r="A65" s="5">
-        <v>64</v>
-      </c>
-      <c r="B65" s="6">
-        <v>254906</v>
-      </c>
-      <c r="C65" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="D65" s="8" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
-      <c r="A66" s="5">
-        <v>65</v>
-      </c>
-      <c r="B66" s="6">
-        <v>483907</v>
-      </c>
-      <c r="C66" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="D66" s="8" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
-      <c r="A67" s="5">
-        <v>66</v>
-      </c>
-      <c r="B67" s="6">
-        <v>480490</v>
-      </c>
-      <c r="C67" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="D67" s="8" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
-      <c r="A68" s="5">
-        <v>67</v>
-      </c>
-      <c r="B68" s="6">
-        <v>480490</v>
-      </c>
-      <c r="C68" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="D68" s="8" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
-      <c r="A69" s="5">
-        <v>68</v>
-      </c>
-      <c r="B69" s="6">
-        <v>439607</v>
-      </c>
-      <c r="C69" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="D69" s="8" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
-      <c r="A70" s="5">
-        <v>69</v>
-      </c>
-      <c r="B70" s="6">
-        <v>439607</v>
-      </c>
-      <c r="C70" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="D70" s="8" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
-      <c r="A71" s="5">
-        <v>70</v>
-      </c>
-      <c r="B71" s="6">
-        <v>439607</v>
-      </c>
-      <c r="C71" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="D71" s="8" t="s">
+      <c r="B117" s="1">
+        <v>439607</v>
+      </c>
+      <c r="C117" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D117" s="3" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" ht="72.599999999999994">
+      <c r="A118" s="1">
+        <v>117</v>
+      </c>
+      <c r="B118" s="1">
+        <v>439607</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D118" s="3" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" ht="72.599999999999994">
+      <c r="A119" s="1">
         <v>118</v>
       </c>
-    </row>
-    <row r="72" spans="1:4">
-      <c r="A72" s="5">
-        <v>71</v>
-      </c>
-      <c r="B72" s="6">
-        <v>439607</v>
-      </c>
-      <c r="C72" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="D72" s="8" t="s">
+      <c r="B119" s="1">
+        <v>439607</v>
+      </c>
+      <c r="C119" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D119" s="3" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" ht="72.599999999999994">
+      <c r="A120" s="1">
         <v>119</v>
       </c>
-    </row>
-    <row r="73" spans="1:4">
-      <c r="A73" s="5">
-        <v>72</v>
-      </c>
-      <c r="B73" s="6">
-        <v>439607</v>
-      </c>
-      <c r="C73" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="D73" s="8" t="s">
+      <c r="B120" s="1">
+        <v>439607</v>
+      </c>
+      <c r="C120" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D120" s="3" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" ht="72.599999999999994">
+      <c r="A121" s="1">
         <v>120</v>
       </c>
-    </row>
-    <row r="74" spans="1:4">
-      <c r="A74" s="5">
-        <v>73</v>
-      </c>
-      <c r="B74" s="6">
-        <v>439607</v>
-      </c>
-      <c r="C74" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="D74" s="8" t="s">
+      <c r="B121" s="1">
+        <v>439607</v>
+      </c>
+      <c r="C121" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D121" s="3" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" ht="72.599999999999994">
+      <c r="A122" s="1">
         <v>121</v>
       </c>
-    </row>
-    <row r="75" spans="1:4">
-      <c r="A75" s="5">
-        <v>74</v>
-      </c>
-      <c r="B75" s="6">
-        <v>439607</v>
-      </c>
-      <c r="C75" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="D75" s="8" t="s">
+      <c r="B122" s="1">
+        <v>439607</v>
+      </c>
+      <c r="C122" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D122" s="3" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" ht="72.599999999999994">
+      <c r="A123" s="1">
         <v>122</v>
       </c>
-    </row>
-    <row r="76" spans="1:4">
-      <c r="A76" s="5">
-        <v>75</v>
-      </c>
-      <c r="B76" s="6">
-        <v>439607</v>
-      </c>
-      <c r="C76" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="D76" s="8" t="s">
+      <c r="B123" s="1">
+        <v>439607</v>
+      </c>
+      <c r="C123" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D123" s="3" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" ht="72.599999999999994">
+      <c r="A124" s="1">
         <v>123</v>
       </c>
-    </row>
-    <row r="77" spans="1:4">
-      <c r="A77" s="5">
-        <v>76</v>
-      </c>
-      <c r="B77" s="6">
-        <v>439607</v>
-      </c>
-      <c r="C77" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="D77" s="8" t="s">
+      <c r="B124" s="1">
+        <v>439607</v>
+      </c>
+      <c r="C124" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D124" s="3" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" ht="72.599999999999994">
+      <c r="A125" s="1">
         <v>124</v>
       </c>
-    </row>
-    <row r="78" spans="1:4">
-      <c r="A78" s="5">
-        <v>77</v>
-      </c>
-      <c r="B78" s="6">
-        <v>439607</v>
-      </c>
-      <c r="C78" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="D78" s="8" t="s">
+      <c r="B125" s="1">
+        <v>439607</v>
+      </c>
+      <c r="C125" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D125" s="3" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" ht="72.599999999999994">
+      <c r="A126" s="1">
         <v>125</v>
       </c>
-    </row>
-    <row r="79" spans="1:4">
-      <c r="A79" s="5">
-        <v>78</v>
-      </c>
-      <c r="B79" s="6">
-        <v>439607</v>
-      </c>
-      <c r="C79" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="D79" s="8" t="s">
+      <c r="B126" s="1">
+        <v>439607</v>
+      </c>
+      <c r="C126" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D126" s="3" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" ht="72.599999999999994">
+      <c r="A127" s="1">
         <v>126</v>
       </c>
-    </row>
-    <row r="80" spans="1:4">
-      <c r="A80" s="5">
-        <v>79</v>
-      </c>
-      <c r="B80" s="6">
-        <v>439607</v>
-      </c>
-      <c r="C80" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="D80" s="8" t="s">
+      <c r="B127" s="1">
+        <v>439607</v>
+      </c>
+      <c r="C127" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D127" s="3" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" ht="72.599999999999994">
+      <c r="A128" s="1">
         <v>127</v>
       </c>
-    </row>
-    <row r="81" spans="1:4">
-      <c r="A81" s="5">
-        <v>80</v>
-      </c>
-      <c r="B81" s="6">
-        <v>439607</v>
-      </c>
-      <c r="C81" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="D81" s="8" t="s">
+      <c r="B128" s="1">
+        <v>439607</v>
+      </c>
+      <c r="C128" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D128" s="3" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" ht="72.599999999999994">
+      <c r="A129" s="1">
         <v>128</v>
       </c>
-    </row>
-    <row r="82" spans="1:4">
-      <c r="A82" s="5">
-        <v>81</v>
-      </c>
-      <c r="B82" s="6">
-        <v>439607</v>
-      </c>
-      <c r="C82" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="D82" s="8" t="s">
+      <c r="B129" s="1">
+        <v>439607</v>
+      </c>
+      <c r="C129" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D129" s="3" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" ht="72.599999999999994">
+      <c r="A130" s="1">
         <v>129</v>
       </c>
-    </row>
-    <row r="83" spans="1:4">
-      <c r="A83" s="5">
-        <v>82</v>
-      </c>
-      <c r="B83" s="6">
-        <v>439607</v>
-      </c>
-      <c r="C83" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="D83" s="8" t="s">
+      <c r="B130" s="1">
+        <v>439607</v>
+      </c>
+      <c r="C130" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D130" s="3" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" ht="72.599999999999994">
+      <c r="A131" s="1">
         <v>130</v>
       </c>
-    </row>
-    <row r="84" spans="1:4">
-      <c r="A84" s="5">
-        <v>83</v>
-      </c>
-      <c r="B84" s="6">
-        <v>439607</v>
-      </c>
-      <c r="C84" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="D84" s="8" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
-      <c r="A85" s="5">
-        <v>84</v>
-      </c>
-      <c r="B85" s="6">
-        <v>439607</v>
-      </c>
-      <c r="C85" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="D85" s="8" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
-      <c r="A86" s="5">
-        <v>85</v>
-      </c>
-      <c r="B86" s="6">
-        <v>439607</v>
-      </c>
-      <c r="C86" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="D86" s="8" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
-      <c r="A87" s="5">
-        <v>86</v>
-      </c>
-      <c r="B87" s="6">
-        <v>439607</v>
-      </c>
-      <c r="C87" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="D87" s="8" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
-      <c r="A88" s="5">
-        <v>87</v>
-      </c>
-      <c r="B88" s="6">
-        <v>439607</v>
-      </c>
-      <c r="C88" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="D88" s="8" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
-      <c r="A89" s="5">
-        <v>88</v>
-      </c>
-      <c r="B89" s="6">
-        <v>439607</v>
-      </c>
-      <c r="C89" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="D89" s="8" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
-      <c r="A90" s="5">
-        <v>89</v>
-      </c>
-      <c r="B90" s="6">
-        <v>439607</v>
-      </c>
-      <c r="C90" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="D90" s="8" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
-      <c r="A91" s="5">
-        <v>90</v>
-      </c>
-      <c r="B91" s="6">
-        <v>439607</v>
-      </c>
-      <c r="C91" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="D91" s="8" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
-      <c r="A92" s="5">
-        <v>91</v>
-      </c>
-      <c r="B92" s="6">
-        <v>439607</v>
-      </c>
-      <c r="C92" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="D92" s="8" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
-      <c r="A93" s="5">
-        <v>92</v>
-      </c>
-      <c r="B93" s="6">
-        <v>439607</v>
-      </c>
-      <c r="C93" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="D93" s="8" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
-      <c r="A94" s="5">
-        <v>93</v>
-      </c>
-      <c r="B94" s="6">
-        <v>439607</v>
-      </c>
-      <c r="C94" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="D94" s="8" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
-      <c r="A95" s="5">
-        <v>94</v>
-      </c>
-      <c r="B95" s="6">
-        <v>439607</v>
-      </c>
-      <c r="C95" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="D95" s="8" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
-      <c r="A96" s="5">
-        <v>95</v>
-      </c>
-      <c r="B96" s="6">
-        <v>439607</v>
-      </c>
-      <c r="C96" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="D96" s="8" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4">
-      <c r="A97" s="5">
-        <v>96</v>
-      </c>
-      <c r="B97" s="6">
-        <v>439607</v>
-      </c>
-      <c r="C97" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="D97" s="8" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
-      <c r="A98" s="5">
-        <v>97</v>
-      </c>
-      <c r="B98" s="6">
-        <v>439607</v>
-      </c>
-      <c r="C98" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="D98" s="8" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
-      <c r="A99" s="5">
-        <v>98</v>
-      </c>
-      <c r="B99" s="6">
-        <v>439607</v>
-      </c>
-      <c r="C99" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="D99" s="8" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4">
-      <c r="A100" s="5">
-        <v>99</v>
-      </c>
-      <c r="B100" s="6">
-        <v>439607</v>
-      </c>
-      <c r="C100" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="D100" s="8" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4">
-      <c r="A101" s="5">
-        <v>100</v>
-      </c>
-      <c r="B101" s="6">
-        <v>439607</v>
-      </c>
-      <c r="C101" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="D101" s="8" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
-      <c r="A102" s="5">
-        <v>101</v>
-      </c>
-      <c r="B102" s="6">
-        <v>439607</v>
-      </c>
-      <c r="C102" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="D102" s="8" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
-      <c r="A103" s="5">
-        <v>102</v>
-      </c>
-      <c r="B103" s="6">
-        <v>439607</v>
-      </c>
-      <c r="C103" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="D103" s="8" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4">
-      <c r="A104" s="5">
-        <v>103</v>
-      </c>
-      <c r="B104" s="6">
-        <v>439607</v>
-      </c>
-      <c r="C104" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="D104" s="8" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4">
-      <c r="A105" s="5">
-        <v>104</v>
-      </c>
-      <c r="B105" s="6">
-        <v>439607</v>
-      </c>
-      <c r="C105" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="D105" s="8" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4">
-      <c r="A106" s="5">
-        <v>105</v>
-      </c>
-      <c r="B106" s="6">
-        <v>439607</v>
-      </c>
-      <c r="C106" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="D106" s="8" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4">
-      <c r="A107" s="5">
-        <v>106</v>
-      </c>
-      <c r="B107" s="6">
-        <v>439607</v>
-      </c>
-      <c r="C107" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="D107" s="8" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4">
-      <c r="A108" s="5">
-        <v>107</v>
-      </c>
-      <c r="B108" s="6">
-        <v>439607</v>
-      </c>
-      <c r="C108" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="D108" s="8" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4">
-      <c r="A109" s="5">
-        <v>108</v>
-      </c>
-      <c r="B109" s="6">
-        <v>439607</v>
-      </c>
-      <c r="C109" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="D109" s="8" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4">
-      <c r="A110" s="5">
-        <v>109</v>
-      </c>
-      <c r="B110" s="6">
-        <v>439607</v>
-      </c>
-      <c r="C110" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="D110" s="8" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4">
-      <c r="A111" s="5">
-        <v>110</v>
-      </c>
-      <c r="B111" s="6">
-        <v>439607</v>
-      </c>
-      <c r="C111" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="D111" s="8" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4">
-      <c r="A112" s="5">
-        <v>111</v>
-      </c>
-      <c r="B112" s="6">
-        <v>439607</v>
-      </c>
-      <c r="C112" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="D112" s="8" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4">
-      <c r="A113" s="5">
-        <v>112</v>
-      </c>
-      <c r="B113" s="6">
-        <v>439607</v>
-      </c>
-      <c r="C113" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="D113" s="8" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4">
-      <c r="A114" s="5">
-        <v>113</v>
-      </c>
-      <c r="B114" s="6">
-        <v>439607</v>
-      </c>
-      <c r="C114" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="D114" s="8" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4">
-      <c r="A115" s="5">
-        <v>114</v>
-      </c>
-      <c r="B115" s="6">
-        <v>439607</v>
-      </c>
-      <c r="C115" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="D115" s="8" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4">
-      <c r="A116" s="5">
-        <v>115</v>
-      </c>
-      <c r="B116" s="6">
-        <v>439607</v>
-      </c>
-      <c r="C116" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="D116" s="8" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4">
-      <c r="A117" s="5">
-        <v>116</v>
-      </c>
-      <c r="B117" s="6">
-        <v>439607</v>
-      </c>
-      <c r="C117" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="D117" s="8" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4">
-      <c r="A118" s="5">
-        <v>117</v>
-      </c>
-      <c r="B118" s="6">
-        <v>439607</v>
-      </c>
-      <c r="C118" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="D118" s="8" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="119" spans="1:4">
-      <c r="A119" s="5">
-        <v>118</v>
-      </c>
-      <c r="B119" s="6">
-        <v>439607</v>
-      </c>
-      <c r="C119" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="D119" s="8" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="120" spans="1:4">
-      <c r="A120" s="5">
-        <v>119</v>
-      </c>
-      <c r="B120" s="6">
-        <v>439607</v>
-      </c>
-      <c r="C120" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="D120" s="8" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4">
-      <c r="A121" s="5">
-        <v>120</v>
-      </c>
-      <c r="B121" s="6">
-        <v>439607</v>
-      </c>
-      <c r="C121" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="D121" s="8" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="122" spans="1:4">
-      <c r="A122" s="5">
-        <v>121</v>
-      </c>
-      <c r="B122" s="6">
-        <v>439607</v>
-      </c>
-      <c r="C122" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="D122" s="8" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="123" spans="1:4">
-      <c r="A123" s="5">
-        <v>122</v>
-      </c>
-      <c r="B123" s="6">
-        <v>439607</v>
-      </c>
-      <c r="C123" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="D123" s="8" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="124" spans="1:4">
-      <c r="A124" s="5">
-        <v>123</v>
-      </c>
-      <c r="B124" s="6">
-        <v>439607</v>
-      </c>
-      <c r="C124" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="D124" s="8" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="125" spans="1:4">
-      <c r="A125" s="5">
-        <v>124</v>
-      </c>
-      <c r="B125" s="6">
-        <v>439607</v>
-      </c>
-      <c r="C125" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="D125" s="8" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="126" spans="1:4">
-      <c r="A126" s="5">
-        <v>125</v>
-      </c>
-      <c r="B126" s="6">
-        <v>439607</v>
-      </c>
-      <c r="C126" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="D126" s="8" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="127" spans="1:4">
-      <c r="A127" s="5">
-        <v>126</v>
-      </c>
-      <c r="B127" s="6">
-        <v>439607</v>
-      </c>
-      <c r="C127" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="D127" s="8" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="128" spans="1:4">
-      <c r="A128" s="5">
-        <v>127</v>
-      </c>
-      <c r="B128" s="6">
-        <v>439607</v>
-      </c>
-      <c r="C128" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="D128" s="8" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="129" spans="1:4">
-      <c r="A129" s="5">
-        <v>128</v>
-      </c>
-      <c r="B129" s="6">
-        <v>439607</v>
-      </c>
-      <c r="C129" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="D129" s="8" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="130" spans="1:4">
-      <c r="A130" s="5">
-        <v>129</v>
-      </c>
-      <c r="B130" s="6">
-        <v>439607</v>
-      </c>
-      <c r="C130" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="D130" s="8" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="131" spans="1:4">
-      <c r="A131" s="5">
-        <v>130</v>
-      </c>
-      <c r="B131" s="6">
-        <v>439607</v>
-      </c>
-      <c r="C131" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="D131" s="8" t="s">
+      <c r="B131" s="1">
+        <v>439607</v>
+      </c>
+      <c r="C131" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D131" s="3" t="s">
         <v>178</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:C70" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
-  <phoneticPr fontId="7" type="noConversion"/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.51180555555555596" right="0.51180555555555596" top="0.78749999999999998" bottom="0.78749999999999998" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>

--- a/database/anexo b.xlsx
+++ b/database/anexo b.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\guilh\OneDrive\Documentos\Licitacao360\pyqt6\database\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Guilherme\Documents\Licitacao360\pyqt6\database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{514FCDB4-63B0-4AC2-9768-DF3C017A4303}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23DE3F87-6E9A-4E8E-857B-61C963E8EB76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38290" yWindow="-110" windowWidth="38620" windowHeight="21100" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="4. Especificação" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="137">
   <si>
     <t>item_num</t>
   </si>
@@ -1325,1566 +1325,12 @@
       <t/>
     </r>
   </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Televisor
-Características Adicionais: 4k, 3d E Smart Tv, Mínimo: 2 Usb, 3 Hdmi, Wi-Fi In
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Carlito;Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Tamanho Tela: 75 POL
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Tipo Tela: Led
-Voltagem: 110/240</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Televisor
-Características Adicionais: 4k, 3d E Smart Tv, Mínimo: 2 Usb, 3 Hdmi, Wi-Fi In
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Carlito;Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Tamanho Tela: 75 POL
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Tipo Tela: Led
-Voltagem: 110/241</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Televisor
-Características Adicionais: 4k, 3d E Smart Tv, Mínimo: 2 Usb, 3 Hdmi, Wi-Fi In
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Carlito;Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Tamanho Tela: 75 POL
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Tipo Tela: Led
-Voltagem: 110/242</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Televisor
-Características Adicionais: 4k, 3d E Smart Tv, Mínimo: 2 Usb, 3 Hdmi, Wi-Fi In
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Carlito;Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Tamanho Tela: 75 POL
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Tipo Tela: Led
-Voltagem: 110/243</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Televisor
-Características Adicionais: 4k, 3d E Smart Tv, Mínimo: 2 Usb, 3 Hdmi, Wi-Fi In
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Carlito;Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Tamanho Tela: 75 POL
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Tipo Tela: Led
-Voltagem: 110/244</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Televisor
-Características Adicionais: 4k, 3d E Smart Tv, Mínimo: 2 Usb, 3 Hdmi, Wi-Fi In
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Carlito;Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Tamanho Tela: 75 POL
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Tipo Tela: Led
-Voltagem: 110/245</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Televisor
-Características Adicionais: 4k, 3d E Smart Tv, Mínimo: 2 Usb, 3 Hdmi, Wi-Fi In
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Carlito;Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Tamanho Tela: 75 POL
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Tipo Tela: Led
-Voltagem: 110/246</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Televisor
-Características Adicionais: 4k, 3d E Smart Tv, Mínimo: 2 Usb, 3 Hdmi, Wi-Fi In
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Carlito;Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Tamanho Tela: 75 POL
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Tipo Tela: Led
-Voltagem: 110/247</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Televisor
-Características Adicionais: 4k, 3d E Smart Tv, Mínimo: 2 Usb, 3 Hdmi, Wi-Fi In
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Carlito;Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Tamanho Tela: 75 POL
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Tipo Tela: Led
-Voltagem: 110/248</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Televisor
-Características Adicionais: 4k, 3d E Smart Tv, Mínimo: 2 Usb, 3 Hdmi, Wi-Fi In
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Carlito;Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Tamanho Tela: 75 POL
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Tipo Tela: Led
-Voltagem: 110/249</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Televisor
-Características Adicionais: 4k, 3d E Smart Tv, Mínimo: 2 Usb, 3 Hdmi, Wi-Fi In
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Carlito;Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Tamanho Tela: 75 POL
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Tipo Tela: Led
-Voltagem: 110/250</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Televisor
-Características Adicionais: 4k, 3d E Smart Tv, Mínimo: 2 Usb, 3 Hdmi, Wi-Fi In
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Carlito;Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Tamanho Tela: 75 POL
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Tipo Tela: Led
-Voltagem: 110/251</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Televisor
-Características Adicionais: 4k, 3d E Smart Tv, Mínimo: 2 Usb, 3 Hdmi, Wi-Fi In
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Carlito;Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Tamanho Tela: 75 POL
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Tipo Tela: Led
-Voltagem: 110/252</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Televisor
-Características Adicionais: 4k, 3d E Smart Tv, Mínimo: 2 Usb, 3 Hdmi, Wi-Fi In
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Carlito;Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Tamanho Tela: 75 POL
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Tipo Tela: Led
-Voltagem: 110/253</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Televisor
-Características Adicionais: 4k, 3d E Smart Tv, Mínimo: 2 Usb, 3 Hdmi, Wi-Fi In
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Carlito;Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Tamanho Tela: 75 POL
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Tipo Tela: Led
-Voltagem: 110/254</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Televisor
-Características Adicionais: 4k, 3d E Smart Tv, Mínimo: 2 Usb, 3 Hdmi, Wi-Fi In
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Carlito;Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Tamanho Tela: 75 POL
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Tipo Tela: Led
-Voltagem: 110/255</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Televisor
-Características Adicionais: 4k, 3d E Smart Tv, Mínimo: 2 Usb, 3 Hdmi, Wi-Fi In
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Carlito;Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Tamanho Tela: 75 POL
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Tipo Tela: Led
-Voltagem: 110/256</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Televisor
-Características Adicionais: 4k, 3d E Smart Tv, Mínimo: 2 Usb, 3 Hdmi, Wi-Fi In
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Carlito;Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Tamanho Tela: 75 POL
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Tipo Tela: Led
-Voltagem: 110/257</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Televisor
-Características Adicionais: 4k, 3d E Smart Tv, Mínimo: 2 Usb, 3 Hdmi, Wi-Fi In
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Carlito;Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Tamanho Tela: 75 POL
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Tipo Tela: Led
-Voltagem: 110/258</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Televisor
-Características Adicionais: 4k, 3d E Smart Tv, Mínimo: 2 Usb, 3 Hdmi, Wi-Fi In
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Carlito;Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Tamanho Tela: 75 POL
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Tipo Tela: Led
-Voltagem: 110/259</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Televisor
-Características Adicionais: 4k, 3d E Smart Tv, Mínimo: 2 Usb, 3 Hdmi, Wi-Fi In
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Carlito;Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Tamanho Tela: 75 POL
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Tipo Tela: Led
-Voltagem: 110/260</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Televisor
-Características Adicionais: 4k, 3d E Smart Tv, Mínimo: 2 Usb, 3 Hdmi, Wi-Fi In
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Carlito;Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Tamanho Tela: 75 POL
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Tipo Tela: Led
-Voltagem: 110/261</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Televisor
-Características Adicionais: 4k, 3d E Smart Tv, Mínimo: 2 Usb, 3 Hdmi, Wi-Fi In
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Carlito;Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Tamanho Tela: 75 POL
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Tipo Tela: Led
-Voltagem: 110/262</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Televisor
-Características Adicionais: 4k, 3d E Smart Tv, Mínimo: 2 Usb, 3 Hdmi, Wi-Fi In
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Carlito;Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Tamanho Tela: 75 POL
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Tipo Tela: Led
-Voltagem: 110/263</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Televisor
-Características Adicionais: 4k, 3d E Smart Tv, Mínimo: 2 Usb, 3 Hdmi, Wi-Fi In
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Carlito;Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Tamanho Tela: 75 POL
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Tipo Tela: Led
-Voltagem: 110/264</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Televisor
-Características Adicionais: 4k, 3d E Smart Tv, Mínimo: 2 Usb, 3 Hdmi, Wi-Fi In
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Carlito;Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Tamanho Tela: 75 POL
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Tipo Tela: Led
-Voltagem: 110/265</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Televisor
-Características Adicionais: 4k, 3d E Smart Tv, Mínimo: 2 Usb, 3 Hdmi, Wi-Fi In
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Carlito;Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Tamanho Tela: 75 POL
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Tipo Tela: Led
-Voltagem: 110/266</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Televisor
-Características Adicionais: 4k, 3d E Smart Tv, Mínimo: 2 Usb, 3 Hdmi, Wi-Fi In
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Carlito;Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Tamanho Tela: 75 POL
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Tipo Tela: Led
-Voltagem: 110/267</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Televisor
-Características Adicionais: 4k, 3d E Smart Tv, Mínimo: 2 Usb, 3 Hdmi, Wi-Fi In
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Carlito;Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Tamanho Tela: 75 POL
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Tipo Tela: Led
-Voltagem: 110/268</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Televisor
-Características Adicionais: 4k, 3d E Smart Tv, Mínimo: 2 Usb, 3 Hdmi, Wi-Fi In
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Carlito;Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Tamanho Tela: 75 POL
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Tipo Tela: Led
-Voltagem: 110/269</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Televisor
-Características Adicionais: 4k, 3d E Smart Tv, Mínimo: 2 Usb, 3 Hdmi, Wi-Fi In
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Carlito;Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Tamanho Tela: 75 POL
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Tipo Tela: Led
-Voltagem: 110/270</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Televisor
-Características Adicionais: 4k, 3d E Smart Tv, Mínimo: 2 Usb, 3 Hdmi, Wi-Fi In
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Carlito;Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Tamanho Tela: 75 POL
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Tipo Tela: Led
-Voltagem: 110/271</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Televisor
-Características Adicionais: 4k, 3d E Smart Tv, Mínimo: 2 Usb, 3 Hdmi, Wi-Fi In
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Carlito;Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Tamanho Tela: 75 POL
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Tipo Tela: Led
-Voltagem: 110/272</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Televisor
-Características Adicionais: 4k, 3d E Smart Tv, Mínimo: 2 Usb, 3 Hdmi, Wi-Fi In
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Carlito;Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Tamanho Tela: 75 POL
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Tipo Tela: Led
-Voltagem: 110/273</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Televisor
-Características Adicionais: 4k, 3d E Smart Tv, Mínimo: 2 Usb, 3 Hdmi, Wi-Fi In
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Carlito;Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Tamanho Tela: 75 POL
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Tipo Tela: Led
-Voltagem: 110/274</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Televisor
-Características Adicionais: 4k, 3d E Smart Tv, Mínimo: 2 Usb, 3 Hdmi, Wi-Fi In
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Carlito;Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Tamanho Tela: 75 POL
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Tipo Tela: Led
-Voltagem: 110/275</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Televisor
-Características Adicionais: 4k, 3d E Smart Tv, Mínimo: 2 Usb, 3 Hdmi, Wi-Fi In
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Carlito;Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Tamanho Tela: 75 POL
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Tipo Tela: Led
-Voltagem: 110/276</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Televisor
-Características Adicionais: 4k, 3d E Smart Tv, Mínimo: 2 Usb, 3 Hdmi, Wi-Fi In
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Carlito;Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Tamanho Tela: 75 POL
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Tipo Tela: Led
-Voltagem: 110/277</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Televisor
-Características Adicionais: 4k, 3d E Smart Tv, Mínimo: 2 Usb, 3 Hdmi, Wi-Fi In
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Carlito;Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Tamanho Tela: 75 POL
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Tipo Tela: Led
-Voltagem: 110/278</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Televisor
-Características Adicionais: 4k, 3d E Smart Tv, Mínimo: 2 Usb, 3 Hdmi, Wi-Fi In
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Carlito;Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Tamanho Tela: 75 POL
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Tipo Tela: Led
-Voltagem: 110/279</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Televisor
-Características Adicionais: 4k, 3d E Smart Tv, Mínimo: 2 Usb, 3 Hdmi, Wi-Fi In
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Carlito;Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Tamanho Tela: 75 POL
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Tipo Tela: Led
-Voltagem: 110/280</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Televisor
-Características Adicionais: 4k, 3d E Smart Tv, Mínimo: 2 Usb, 3 Hdmi, Wi-Fi In
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Carlito;Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Tamanho Tela: 75 POL
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Tipo Tela: Led
-Voltagem: 110/281</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -2917,12 +1363,6 @@
     </font>
     <font>
       <sz val="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -3002,10 +1442,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -3014,7 +1454,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
@@ -3148,21 +1588,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AME131"/>
+  <dimension ref="A1:AME89"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" topLeftCell="A85" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A90" sqref="A90:XFD131"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.88671875" defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="12.90625" defaultRowHeight="15.5"/>
   <cols>
-    <col min="1" max="1" width="12.88671875" style="5"/>
-    <col min="2" max="2" width="12.88671875" style="8"/>
-    <col min="3" max="3" width="26.21875" style="8" customWidth="1"/>
+    <col min="1" max="1" width="12.90625" style="5"/>
+    <col min="2" max="2" width="12.90625" style="8"/>
+    <col min="3" max="3" width="26.1796875" style="8" customWidth="1"/>
     <col min="4" max="4" width="131" style="5" customWidth="1"/>
-    <col min="5" max="1012" width="12.88671875" style="5"/>
-    <col min="1013" max="1019" width="12.88671875" style="6"/>
-    <col min="1020" max="16384" width="12.88671875" style="7"/>
+    <col min="5" max="1012" width="12.90625" style="5"/>
+    <col min="1013" max="1019" width="12.90625" style="6"/>
+    <col min="1020" max="16384" width="12.90625" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -3179,7 +1619,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="31.2">
+    <row r="2" spans="1:4" ht="31">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -3193,7 +1633,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="46.8">
+    <row r="3" spans="1:4" ht="46.5">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -3207,7 +1647,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="43.2">
+    <row r="4" spans="1:4" ht="43.5">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -3221,7 +1661,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="46.8">
+    <row r="5" spans="1:4" ht="46.5">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -3235,7 +1675,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="57.6">
+    <row r="6" spans="1:4" ht="58">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -3249,7 +1689,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="57.6">
+    <row r="7" spans="1:4" ht="58">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -3263,7 +1703,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="57.6">
+    <row r="8" spans="1:4" ht="58">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -3277,7 +1717,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="57.6">
+    <row r="9" spans="1:4" ht="58">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -3291,7 +1731,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="57.6">
+    <row r="10" spans="1:4" ht="58">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -3305,7 +1745,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="57.6">
+    <row r="11" spans="1:4" ht="58">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -3319,7 +1759,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="86.4">
+    <row r="12" spans="1:4" ht="87">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -3333,7 +1773,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="86.4">
+    <row r="13" spans="1:4" ht="87">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -3347,7 +1787,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="100.8">
+    <row r="14" spans="1:4" ht="101.5">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -3361,7 +1801,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="100.8">
+    <row r="15" spans="1:4" ht="101.5">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -3375,7 +1815,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="100.8">
+    <row r="16" spans="1:4" ht="101.5">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -3389,7 +1829,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="57.6">
+    <row r="17" spans="1:4" ht="58">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -3403,7 +1843,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="57.6">
+    <row r="18" spans="1:4" ht="58">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -3417,7 +1857,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="86.4">
+    <row r="19" spans="1:4" ht="87">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -3431,7 +1871,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="86.4">
+    <row r="20" spans="1:4" ht="87">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -3445,7 +1885,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="86.4">
+    <row r="21" spans="1:4" ht="101.5">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -3459,7 +1899,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="86.4">
+    <row r="22" spans="1:4" ht="101.5">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -3473,7 +1913,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="57.6">
+    <row r="23" spans="1:4" ht="72.5">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -3487,7 +1927,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="57.6">
+    <row r="24" spans="1:4" ht="72.5">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -3501,7 +1941,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="100.8">
+    <row r="25" spans="1:4" ht="101.5">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -3515,7 +1955,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="86.4">
+    <row r="26" spans="1:4" ht="87">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -3529,7 +1969,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="100.8">
+    <row r="27" spans="1:4" ht="101.5">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -3543,7 +1983,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="72">
+    <row r="28" spans="1:4" ht="72.5">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -3557,7 +1997,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="72">
+    <row r="29" spans="1:4" ht="72.5">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -3571,7 +2011,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="72">
+    <row r="30" spans="1:4" ht="72.5">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -3585,7 +2025,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="72">
+    <row r="31" spans="1:4" ht="72.5">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -3599,7 +2039,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="100.8">
+    <row r="32" spans="1:4" ht="101.5">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -3613,7 +2053,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="100.8">
+    <row r="33" spans="1:4" ht="101.5">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -3627,7 +2067,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="57.6">
+    <row r="34" spans="1:4" ht="58">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -3641,7 +2081,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="87.6">
+    <row r="35" spans="1:4" ht="88">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -3655,7 +2095,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="87.6">
+    <row r="36" spans="1:4" ht="88">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -3669,7 +2109,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="100.8">
+    <row r="37" spans="1:4" ht="101.5">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -3683,7 +2123,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="72">
+    <row r="38" spans="1:4" ht="72.5">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -3697,7 +2137,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="73.2">
+    <row r="39" spans="1:4" ht="73.5">
       <c r="A39" s="1">
         <v>38</v>
       </c>
@@ -3711,7 +2151,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="73.2">
+    <row r="40" spans="1:4" ht="73.5">
       <c r="A40" s="1">
         <v>39</v>
       </c>
@@ -3725,7 +2165,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="72">
+    <row r="41" spans="1:4" ht="72.5">
       <c r="A41" s="1">
         <v>40</v>
       </c>
@@ -3739,7 +2179,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="86.4">
+    <row r="42" spans="1:4" ht="116">
       <c r="A42" s="1">
         <v>41</v>
       </c>
@@ -3753,7 +2193,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="86.4">
+    <row r="43" spans="1:4" ht="116">
       <c r="A43" s="1">
         <v>42</v>
       </c>
@@ -3767,7 +2207,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="100.8">
+    <row r="44" spans="1:4" ht="101.5">
       <c r="A44" s="1">
         <v>43</v>
       </c>
@@ -3781,7 +2221,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="57.6">
+    <row r="45" spans="1:4" ht="58">
       <c r="A45" s="1">
         <v>44</v>
       </c>
@@ -3795,7 +2235,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="57.6">
+    <row r="46" spans="1:4" ht="72.5">
       <c r="A46" s="1">
         <v>45</v>
       </c>
@@ -3809,7 +2249,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="129.6">
+    <row r="47" spans="1:4" ht="130.5">
       <c r="A47" s="1">
         <v>46</v>
       </c>
@@ -3823,7 +2263,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="129.6">
+    <row r="48" spans="1:4" ht="130.5">
       <c r="A48" s="1">
         <v>47</v>
       </c>
@@ -3837,7 +2277,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="72">
+    <row r="49" spans="1:4" ht="72.5">
       <c r="A49" s="1">
         <v>48</v>
       </c>
@@ -3851,7 +2291,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="115.2">
+    <row r="50" spans="1:4" ht="116">
       <c r="A50" s="1">
         <v>49</v>
       </c>
@@ -3865,7 +2305,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="100.8">
+    <row r="51" spans="1:4" ht="101.5">
       <c r="A51" s="1">
         <v>50</v>
       </c>
@@ -3879,7 +2319,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="100.8">
+    <row r="52" spans="1:4" ht="101.5">
       <c r="A52" s="1">
         <v>51</v>
       </c>
@@ -3893,7 +2333,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="100.8">
+    <row r="53" spans="1:4" ht="101.5">
       <c r="A53" s="1">
         <v>52</v>
       </c>
@@ -3907,7 +2347,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="100.8">
+    <row r="54" spans="1:4" ht="101.5">
       <c r="A54" s="1">
         <v>53</v>
       </c>
@@ -3921,7 +2361,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="100.8">
+    <row r="55" spans="1:4" ht="101.5">
       <c r="A55" s="1">
         <v>54</v>
       </c>
@@ -3935,7 +2375,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="56" spans="1:4" ht="72">
+    <row r="56" spans="1:4" ht="72.5">
       <c r="A56" s="1">
         <v>55</v>
       </c>
@@ -3949,7 +2389,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="86.4">
+    <row r="57" spans="1:4" ht="87">
       <c r="A57" s="1">
         <v>56</v>
       </c>
@@ -3963,7 +2403,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="58" spans="1:4" ht="86.4">
+    <row r="58" spans="1:4" ht="87">
       <c r="A58" s="1">
         <v>57</v>
       </c>
@@ -3977,7 +2417,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="59" spans="1:4" ht="115.2">
+    <row r="59" spans="1:4" ht="116">
       <c r="A59" s="1">
         <v>58</v>
       </c>
@@ -3991,7 +2431,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="60" spans="1:4" ht="115.2">
+    <row r="60" spans="1:4" ht="116">
       <c r="A60" s="1">
         <v>59</v>
       </c>
@@ -4005,7 +2445,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="61" spans="1:4" ht="72">
+    <row r="61" spans="1:4" ht="72.5">
       <c r="A61" s="1">
         <v>60</v>
       </c>
@@ -4019,7 +2459,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="62" spans="1:4" ht="86.4">
+    <row r="62" spans="1:4" ht="87">
       <c r="A62" s="1">
         <v>61</v>
       </c>
@@ -4033,7 +2473,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="63" spans="1:4" ht="86.4">
+    <row r="63" spans="1:4" ht="87">
       <c r="A63" s="1">
         <v>62</v>
       </c>
@@ -4047,7 +2487,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="64" spans="1:4" ht="86.4">
+    <row r="64" spans="1:4" ht="87">
       <c r="A64" s="1">
         <v>63</v>
       </c>
@@ -4061,7 +2501,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="65" spans="1:4" ht="86.4">
+    <row r="65" spans="1:4" ht="87">
       <c r="A65" s="1">
         <v>64</v>
       </c>
@@ -4075,7 +2515,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="66" spans="1:4" ht="86.4">
+    <row r="66" spans="1:4" ht="87">
       <c r="A66" s="1">
         <v>65</v>
       </c>
@@ -4089,7 +2529,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="67" spans="1:4" ht="72">
+    <row r="67" spans="1:4" ht="72.5">
       <c r="A67" s="1">
         <v>66</v>
       </c>
@@ -4103,7 +2543,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="68" spans="1:4" ht="72">
+    <row r="68" spans="1:4" ht="72.5">
       <c r="A68" s="1">
         <v>67</v>
       </c>
@@ -4117,7 +2557,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="69" spans="1:4" ht="72.599999999999994">
+    <row r="69" spans="1:4" ht="73.5">
       <c r="A69" s="1">
         <v>68</v>
       </c>
@@ -4131,7 +2571,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="70" spans="1:4" ht="72.599999999999994">
+    <row r="70" spans="1:4" ht="73.5">
       <c r="A70" s="1">
         <v>69</v>
       </c>
@@ -4145,7 +2585,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="71" spans="1:4" ht="72.599999999999994">
+    <row r="71" spans="1:4" ht="73.5">
       <c r="A71" s="1">
         <v>70</v>
       </c>
@@ -4159,7 +2599,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="72" spans="1:4" ht="72.599999999999994">
+    <row r="72" spans="1:4" ht="73.5">
       <c r="A72" s="1">
         <v>71</v>
       </c>
@@ -4173,7 +2613,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="73" spans="1:4" ht="72.599999999999994">
+    <row r="73" spans="1:4" ht="73.5">
       <c r="A73" s="1">
         <v>72</v>
       </c>
@@ -4187,7 +2627,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="74" spans="1:4" ht="72.599999999999994">
+    <row r="74" spans="1:4" ht="73.5">
       <c r="A74" s="1">
         <v>73</v>
       </c>
@@ -4201,7 +2641,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="75" spans="1:4" ht="72.599999999999994">
+    <row r="75" spans="1:4" ht="73.5">
       <c r="A75" s="1">
         <v>74</v>
       </c>
@@ -4215,7 +2655,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="76" spans="1:4" ht="72.599999999999994">
+    <row r="76" spans="1:4" ht="73.5">
       <c r="A76" s="1">
         <v>75</v>
       </c>
@@ -4229,7 +2669,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="77" spans="1:4" ht="72.599999999999994">
+    <row r="77" spans="1:4" ht="73.5">
       <c r="A77" s="1">
         <v>76</v>
       </c>
@@ -4243,7 +2683,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="78" spans="1:4" ht="72.599999999999994">
+    <row r="78" spans="1:4" ht="73.5">
       <c r="A78" s="1">
         <v>77</v>
       </c>
@@ -4257,7 +2697,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="79" spans="1:4" ht="72.599999999999994">
+    <row r="79" spans="1:4" ht="73.5">
       <c r="A79" s="1">
         <v>78</v>
       </c>
@@ -4271,7 +2711,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="80" spans="1:4" ht="72.599999999999994">
+    <row r="80" spans="1:4" ht="73.5">
       <c r="A80" s="1">
         <v>79</v>
       </c>
@@ -4285,7 +2725,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="81" spans="1:4" ht="72.599999999999994">
+    <row r="81" spans="1:4" ht="73.5">
       <c r="A81" s="1">
         <v>80</v>
       </c>
@@ -4299,7 +2739,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="82" spans="1:4" ht="72.599999999999994">
+    <row r="82" spans="1:4" ht="73.5">
       <c r="A82" s="1">
         <v>81</v>
       </c>
@@ -4313,7 +2753,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="83" spans="1:4" ht="72.599999999999994">
+    <row r="83" spans="1:4" ht="73.5">
       <c r="A83" s="1">
         <v>82</v>
       </c>
@@ -4327,7 +2767,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="84" spans="1:4" ht="72.599999999999994">
+    <row r="84" spans="1:4" ht="73.5">
       <c r="A84" s="1">
         <v>83</v>
       </c>
@@ -4341,7 +2781,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="85" spans="1:4" ht="72.599999999999994">
+    <row r="85" spans="1:4" ht="73.5">
       <c r="A85" s="1">
         <v>84</v>
       </c>
@@ -4355,7 +2795,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="86" spans="1:4" ht="72.599999999999994">
+    <row r="86" spans="1:4" ht="73.5">
       <c r="A86" s="1">
         <v>85</v>
       </c>
@@ -4369,7 +2809,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="87" spans="1:4" ht="72.599999999999994">
+    <row r="87" spans="1:4" ht="73.5">
       <c r="A87" s="1">
         <v>86</v>
       </c>
@@ -4383,7 +2823,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="88" spans="1:4" ht="72.599999999999994">
+    <row r="88" spans="1:4" ht="73.5">
       <c r="A88" s="1">
         <v>87</v>
       </c>
@@ -4397,7 +2837,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="89" spans="1:4" ht="72.599999999999994">
+    <row r="89" spans="1:4" ht="73.5">
       <c r="A89" s="1">
         <v>88</v>
       </c>
@@ -4409,594 +2849,6 @@
       </c>
       <c r="D89" s="3" t="s">
         <v>136</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" ht="72.599999999999994">
-      <c r="A90" s="1">
-        <v>89</v>
-      </c>
-      <c r="B90" s="1">
-        <v>439607</v>
-      </c>
-      <c r="C90" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="D90" s="3" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" ht="72.599999999999994">
-      <c r="A91" s="1">
-        <v>90</v>
-      </c>
-      <c r="B91" s="1">
-        <v>439607</v>
-      </c>
-      <c r="C91" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="D91" s="3" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" ht="72.599999999999994">
-      <c r="A92" s="1">
-        <v>91</v>
-      </c>
-      <c r="B92" s="1">
-        <v>439607</v>
-      </c>
-      <c r="C92" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="D92" s="3" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" ht="72.599999999999994">
-      <c r="A93" s="1">
-        <v>92</v>
-      </c>
-      <c r="B93" s="1">
-        <v>439607</v>
-      </c>
-      <c r="C93" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="D93" s="3" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" ht="72.599999999999994">
-      <c r="A94" s="1">
-        <v>93</v>
-      </c>
-      <c r="B94" s="1">
-        <v>439607</v>
-      </c>
-      <c r="C94" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="D94" s="3" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" ht="72.599999999999994">
-      <c r="A95" s="1">
-        <v>94</v>
-      </c>
-      <c r="B95" s="1">
-        <v>439607</v>
-      </c>
-      <c r="C95" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="D95" s="3" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" ht="72.599999999999994">
-      <c r="A96" s="1">
-        <v>95</v>
-      </c>
-      <c r="B96" s="1">
-        <v>439607</v>
-      </c>
-      <c r="C96" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="D96" s="3" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" ht="72.599999999999994">
-      <c r="A97" s="1">
-        <v>96</v>
-      </c>
-      <c r="B97" s="1">
-        <v>439607</v>
-      </c>
-      <c r="C97" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="D97" s="3" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" ht="72.599999999999994">
-      <c r="A98" s="1">
-        <v>97</v>
-      </c>
-      <c r="B98" s="1">
-        <v>439607</v>
-      </c>
-      <c r="C98" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="D98" s="3" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" ht="72.599999999999994">
-      <c r="A99" s="1">
-        <v>98</v>
-      </c>
-      <c r="B99" s="1">
-        <v>439607</v>
-      </c>
-      <c r="C99" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="D99" s="3" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" ht="72.599999999999994">
-      <c r="A100" s="1">
-        <v>99</v>
-      </c>
-      <c r="B100" s="1">
-        <v>439607</v>
-      </c>
-      <c r="C100" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="D100" s="3" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" ht="72.599999999999994">
-      <c r="A101" s="1">
-        <v>100</v>
-      </c>
-      <c r="B101" s="1">
-        <v>439607</v>
-      </c>
-      <c r="C101" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="D101" s="3" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4" ht="72.599999999999994">
-      <c r="A102" s="1">
-        <v>101</v>
-      </c>
-      <c r="B102" s="1">
-        <v>439607</v>
-      </c>
-      <c r="C102" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="D102" s="3" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4" ht="72.599999999999994">
-      <c r="A103" s="1">
-        <v>102</v>
-      </c>
-      <c r="B103" s="1">
-        <v>439607</v>
-      </c>
-      <c r="C103" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="D103" s="3" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4" ht="72.599999999999994">
-      <c r="A104" s="1">
-        <v>103</v>
-      </c>
-      <c r="B104" s="1">
-        <v>439607</v>
-      </c>
-      <c r="C104" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="D104" s="3" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4" ht="72.599999999999994">
-      <c r="A105" s="1">
-        <v>104</v>
-      </c>
-      <c r="B105" s="1">
-        <v>439607</v>
-      </c>
-      <c r="C105" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="D105" s="3" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4" ht="72.599999999999994">
-      <c r="A106" s="1">
-        <v>105</v>
-      </c>
-      <c r="B106" s="1">
-        <v>439607</v>
-      </c>
-      <c r="C106" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="D106" s="3" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4" ht="72.599999999999994">
-      <c r="A107" s="1">
-        <v>106</v>
-      </c>
-      <c r="B107" s="1">
-        <v>439607</v>
-      </c>
-      <c r="C107" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="D107" s="3" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4" ht="72.599999999999994">
-      <c r="A108" s="1">
-        <v>107</v>
-      </c>
-      <c r="B108" s="1">
-        <v>439607</v>
-      </c>
-      <c r="C108" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="D108" s="3" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4" ht="72.599999999999994">
-      <c r="A109" s="1">
-        <v>108</v>
-      </c>
-      <c r="B109" s="1">
-        <v>439607</v>
-      </c>
-      <c r="C109" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="D109" s="3" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4" ht="72.599999999999994">
-      <c r="A110" s="1">
-        <v>109</v>
-      </c>
-      <c r="B110" s="1">
-        <v>439607</v>
-      </c>
-      <c r="C110" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="D110" s="3" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4" ht="72.599999999999994">
-      <c r="A111" s="1">
-        <v>110</v>
-      </c>
-      <c r="B111" s="1">
-        <v>439607</v>
-      </c>
-      <c r="C111" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="D111" s="3" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4" ht="72.599999999999994">
-      <c r="A112" s="1">
-        <v>111</v>
-      </c>
-      <c r="B112" s="1">
-        <v>439607</v>
-      </c>
-      <c r="C112" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="D112" s="3" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4" ht="72.599999999999994">
-      <c r="A113" s="1">
-        <v>112</v>
-      </c>
-      <c r="B113" s="1">
-        <v>439607</v>
-      </c>
-      <c r="C113" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="D113" s="3" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4" ht="72.599999999999994">
-      <c r="A114" s="1">
-        <v>113</v>
-      </c>
-      <c r="B114" s="1">
-        <v>439607</v>
-      </c>
-      <c r="C114" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="D114" s="3" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4" ht="72.599999999999994">
-      <c r="A115" s="1">
-        <v>114</v>
-      </c>
-      <c r="B115" s="1">
-        <v>439607</v>
-      </c>
-      <c r="C115" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="D115" s="3" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4" ht="72.599999999999994">
-      <c r="A116" s="1">
-        <v>115</v>
-      </c>
-      <c r="B116" s="1">
-        <v>439607</v>
-      </c>
-      <c r="C116" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="D116" s="3" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4" ht="72.599999999999994">
-      <c r="A117" s="1">
-        <v>116</v>
-      </c>
-      <c r="B117" s="1">
-        <v>439607</v>
-      </c>
-      <c r="C117" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="D117" s="3" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4" ht="72.599999999999994">
-      <c r="A118" s="1">
-        <v>117</v>
-      </c>
-      <c r="B118" s="1">
-        <v>439607</v>
-      </c>
-      <c r="C118" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="D118" s="3" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="119" spans="1:4" ht="72.599999999999994">
-      <c r="A119" s="1">
-        <v>118</v>
-      </c>
-      <c r="B119" s="1">
-        <v>439607</v>
-      </c>
-      <c r="C119" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="D119" s="3" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="120" spans="1:4" ht="72.599999999999994">
-      <c r="A120" s="1">
-        <v>119</v>
-      </c>
-      <c r="B120" s="1">
-        <v>439607</v>
-      </c>
-      <c r="C120" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="D120" s="3" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4" ht="72.599999999999994">
-      <c r="A121" s="1">
-        <v>120</v>
-      </c>
-      <c r="B121" s="1">
-        <v>439607</v>
-      </c>
-      <c r="C121" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="D121" s="3" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="122" spans="1:4" ht="72.599999999999994">
-      <c r="A122" s="1">
-        <v>121</v>
-      </c>
-      <c r="B122" s="1">
-        <v>439607</v>
-      </c>
-      <c r="C122" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="D122" s="3" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="123" spans="1:4" ht="72.599999999999994">
-      <c r="A123" s="1">
-        <v>122</v>
-      </c>
-      <c r="B123" s="1">
-        <v>439607</v>
-      </c>
-      <c r="C123" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="D123" s="3" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="124" spans="1:4" ht="72.599999999999994">
-      <c r="A124" s="1">
-        <v>123</v>
-      </c>
-      <c r="B124" s="1">
-        <v>439607</v>
-      </c>
-      <c r="C124" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="D124" s="3" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="125" spans="1:4" ht="72.599999999999994">
-      <c r="A125" s="1">
-        <v>124</v>
-      </c>
-      <c r="B125" s="1">
-        <v>439607</v>
-      </c>
-      <c r="C125" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="D125" s="3" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="126" spans="1:4" ht="72.599999999999994">
-      <c r="A126" s="1">
-        <v>125</v>
-      </c>
-      <c r="B126" s="1">
-        <v>439607</v>
-      </c>
-      <c r="C126" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="D126" s="3" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="127" spans="1:4" ht="72.599999999999994">
-      <c r="A127" s="1">
-        <v>126</v>
-      </c>
-      <c r="B127" s="1">
-        <v>439607</v>
-      </c>
-      <c r="C127" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="D127" s="3" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="128" spans="1:4" ht="72.599999999999994">
-      <c r="A128" s="1">
-        <v>127</v>
-      </c>
-      <c r="B128" s="1">
-        <v>439607</v>
-      </c>
-      <c r="C128" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="D128" s="3" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="129" spans="1:4" ht="72.599999999999994">
-      <c r="A129" s="1">
-        <v>128</v>
-      </c>
-      <c r="B129" s="1">
-        <v>439607</v>
-      </c>
-      <c r="C129" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="D129" s="3" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="130" spans="1:4" ht="72.599999999999994">
-      <c r="A130" s="1">
-        <v>129</v>
-      </c>
-      <c r="B130" s="1">
-        <v>439607</v>
-      </c>
-      <c r="C130" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="D130" s="3" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="131" spans="1:4" ht="72.599999999999994">
-      <c r="A131" s="1">
-        <v>130</v>
-      </c>
-      <c r="B131" s="1">
-        <v>439607</v>
-      </c>
-      <c r="C131" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="D131" s="3" t="s">
-        <v>178</v>
       </c>
     </row>
   </sheetData>
